--- a/05_SupplementaryMaterial/SupplementaryTable4.CNVnatorResults.xlsx
+++ b/05_SupplementaryMaterial/SupplementaryTable4.CNVnatorResults.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SilverStone\Documents\20231014_GitHb\UmH2O2Adapted\05_SupplementaryMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1CC0CC-841F-476E-A41F-D88712EF695C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24358F6D-2FB9-42A0-9D7F-B85E0BA83DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name="Filtered_1" sheetId="3" r:id="rId2"/>
-    <sheet name="Filtered_3" sheetId="2" r:id="rId3"/>
+    <sheet name="Filtered_1_SG200" sheetId="5" r:id="rId3"/>
+    <sheet name="Filtered_1_UmH2O2-R" sheetId="6" r:id="rId4"/>
+    <sheet name="Filtered_2_UmH2O2-R_1kb" sheetId="7" r:id="rId5"/>
+    <sheet name="Filtered_3_UmH2O2-R_RD&gt;1" sheetId="8" r:id="rId6"/>
+    <sheet name="Filtered_4_UmH2O2-R_e-v" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Filtered_1!$A$1:$F$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Filtered_1!$A$1:$F$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Filtered_1_SG200!$A$1:$F$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Filtered_1_UmH2O2-R'!$A$1:$F$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Filtered_2_UmH2O2-R_1kb'!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Filtered_3_UmH2O2-R_RD&gt;1'!$A$1:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Filtered_4_UmH2O2-R_e-v'!$A$1:$F$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Raw!$A$1:$F$231</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="202">
   <si>
     <t>CNV_Type</t>
   </si>
@@ -992,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A230" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:F8"/>
     </sheetView>
   </sheetViews>
@@ -5638,10 +5647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5E3A51-E4F7-4AA4-8C1B-4CD53CE642E4}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5758,16 +5767,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="D6">
-        <v>0.54301999999999995</v>
+        <v>0.57183300000000004</v>
       </c>
       <c r="E6">
-        <v>1.5275199999999999E-2</v>
+        <v>110.379</v>
       </c>
       <c r="F6" t="s">
         <v>197</v>
@@ -5778,16 +5787,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>1950</v>
+        <v>600</v>
       </c>
       <c r="D7">
-        <v>0.53607300000000002</v>
+        <v>0.55188000000000004</v>
       </c>
       <c r="E7">
-        <v>3.7933400000000001E-3</v>
+        <v>1867.2</v>
       </c>
       <c r="F7" t="s">
         <v>142</v>
@@ -5798,36 +5807,36 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D8">
-        <v>0.57183300000000004</v>
+        <v>0.65721600000000002</v>
       </c>
       <c r="E8">
-        <v>110.379</v>
+        <v>33.758800000000001</v>
       </c>
       <c r="F8" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>600</v>
+        <v>1650</v>
       </c>
       <c r="D9">
-        <v>0.55188000000000004</v>
+        <v>4.0540900000000004</v>
       </c>
       <c r="E9">
-        <v>1867.2</v>
+        <v>2.7456700000000001E-2</v>
       </c>
       <c r="F9" t="s">
         <v>142</v>
@@ -5838,16 +5847,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="D10">
-        <v>0.65721600000000002</v>
+        <v>0.51595000000000002</v>
       </c>
       <c r="E10">
-        <v>33.758800000000001</v>
+        <v>6921.74</v>
       </c>
       <c r="F10" t="s">
         <v>142</v>
@@ -5855,19 +5864,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C11">
-        <v>1650</v>
+        <v>600</v>
       </c>
       <c r="D11">
-        <v>4.0540900000000004</v>
+        <v>0.33474700000000002</v>
       </c>
       <c r="E11">
-        <v>2.7456700000000001E-2</v>
+        <v>18635.7</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
@@ -5878,19 +5887,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
       <c r="C12">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D12">
-        <v>0.51595000000000002</v>
+        <v>0.65085700000000002</v>
       </c>
       <c r="E12">
-        <v>6921.74</v>
+        <v>82.268299999999996</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5898,16 +5907,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="D13">
-        <v>0.33474700000000002</v>
+        <v>0.48424200000000001</v>
       </c>
       <c r="E13">
-        <v>18635.7</v>
+        <v>13048.9</v>
       </c>
       <c r="F13" t="s">
         <v>142</v>
@@ -5918,19 +5927,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="C14">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="D14">
-        <v>0.65085700000000002</v>
+        <v>0.46270099999999997</v>
       </c>
       <c r="E14">
-        <v>82.268299999999996</v>
+        <v>8961.77</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5938,16 +5947,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C15">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="D15">
-        <v>0.48424200000000001</v>
+        <v>0.59259300000000004</v>
       </c>
       <c r="E15">
-        <v>13048.9</v>
+        <v>84.442300000000003</v>
       </c>
       <c r="F15" t="s">
         <v>142</v>
@@ -5958,16 +5967,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <v>600</v>
       </c>
       <c r="D16">
-        <v>0.46270099999999997</v>
+        <v>0.37998300000000002</v>
       </c>
       <c r="E16">
-        <v>8961.77</v>
+        <v>4987.83</v>
       </c>
       <c r="F16" t="s">
         <v>142</v>
@@ -5978,19 +5987,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="C17">
-        <v>2550</v>
+        <v>2700</v>
       </c>
       <c r="D17">
-        <v>0.72043199999999996</v>
+        <v>0.68907600000000002</v>
       </c>
       <c r="E17">
-        <v>5.0004600000000003E-2</v>
+        <v>1.55731E-6</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5998,19 +6007,19 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="C18">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="D18">
-        <v>0.69670699999999997</v>
+        <v>0.74538000000000004</v>
       </c>
       <c r="E18">
-        <v>2.9054400000000001E-2</v>
+        <v>7.1689600000000001E-6</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6018,16 +6027,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C19">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="D19">
-        <v>0.59259300000000004</v>
+        <v>0.682419</v>
       </c>
       <c r="E19">
-        <v>84.442300000000003</v>
+        <v>59.388399999999997</v>
       </c>
       <c r="F19" t="s">
         <v>142</v>
@@ -6038,16 +6047,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C20">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="D20">
-        <v>0.37998300000000002</v>
+        <v>0.60314800000000002</v>
       </c>
       <c r="E20">
-        <v>4987.83</v>
+        <v>9.6919599999999999</v>
       </c>
       <c r="F20" t="s">
         <v>142</v>
@@ -6058,19 +6067,19 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="C21">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="D21">
-        <v>0.68907600000000002</v>
+        <v>0.237813</v>
       </c>
       <c r="E21">
-        <v>1.55731E-6</v>
+        <v>291317</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6078,19 +6087,19 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="C22">
-        <v>4200</v>
+        <v>1200</v>
       </c>
       <c r="D22">
-        <v>0.74538000000000004</v>
+        <v>0.66172600000000004</v>
       </c>
       <c r="E22">
-        <v>7.1689600000000001E-6</v>
+        <v>12.5852</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6098,16 +6107,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C23">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="D23">
-        <v>0.682419</v>
+        <v>0.46011600000000002</v>
       </c>
       <c r="E23">
-        <v>59.388399999999997</v>
+        <v>4.8738400000000004</v>
       </c>
       <c r="F23" t="s">
         <v>142</v>
@@ -6118,16 +6127,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C24">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="D24">
-        <v>0.60314800000000002</v>
+        <v>0.55420700000000001</v>
       </c>
       <c r="E24">
-        <v>9.6919599999999999</v>
+        <v>2259.44</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -6138,16 +6147,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C25">
-        <v>2550</v>
+        <v>450</v>
       </c>
       <c r="D25">
-        <v>0.62281399999999998</v>
+        <v>0.31019000000000002</v>
       </c>
       <c r="E25">
-        <v>2.50541E-3</v>
+        <v>19567.900000000001</v>
       </c>
       <c r="F25" t="s">
         <v>142</v>
@@ -6158,16 +6167,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C26">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="D26">
-        <v>0.62254299999999996</v>
+        <v>0.15728</v>
       </c>
       <c r="E26">
-        <v>7.5988100000000001E-3</v>
+        <v>6224.84</v>
       </c>
       <c r="F26" t="s">
         <v>197</v>
@@ -6178,19 +6187,19 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="C27">
-        <v>300</v>
+        <v>1350</v>
       </c>
       <c r="D27">
-        <v>0.237813</v>
+        <v>0.57910799999999996</v>
       </c>
       <c r="E27">
-        <v>291317</v>
+        <v>49.941600000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6198,19 +6207,19 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="C28">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="D28">
-        <v>0.66172600000000004</v>
+        <v>0.32656200000000002</v>
       </c>
       <c r="E28">
-        <v>12.5852</v>
+        <v>910.51</v>
       </c>
       <c r="F28" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6218,19 +6227,19 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="C29">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="D29">
-        <v>0.46011600000000002</v>
+        <v>0.18285399999999999</v>
       </c>
       <c r="E29">
-        <v>4.8738400000000004</v>
+        <v>2555.9699999999998</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6238,16 +6247,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C30">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="D30">
-        <v>0.55420700000000001</v>
+        <v>0.56738999999999995</v>
       </c>
       <c r="E30">
-        <v>2259.44</v>
+        <v>1048.8399999999999</v>
       </c>
       <c r="F30" t="s">
         <v>142</v>
@@ -6258,16 +6267,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C31">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="D31">
-        <v>0.31019000000000002</v>
+        <v>0.60228599999999999</v>
       </c>
       <c r="E31">
-        <v>19567.900000000001</v>
+        <v>24.202300000000001</v>
       </c>
       <c r="F31" t="s">
         <v>142</v>
@@ -6278,16 +6287,16 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C32">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="D32">
-        <v>0.15728</v>
+        <v>0.57200399999999996</v>
       </c>
       <c r="E32">
-        <v>6224.84</v>
+        <v>93.503</v>
       </c>
       <c r="F32" t="s">
         <v>197</v>
@@ -6298,19 +6307,19 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="C33">
-        <v>3750</v>
+        <v>1050</v>
       </c>
       <c r="D33">
-        <v>0.266764</v>
+        <v>0.55166700000000002</v>
       </c>
       <c r="E33">
-        <v>6.97627E-7</v>
+        <v>0.48558600000000002</v>
       </c>
       <c r="F33" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6318,16 +6327,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C34">
-        <v>3600</v>
+        <v>300</v>
       </c>
       <c r="D34">
-        <v>0.23805100000000001</v>
+        <v>0.156001</v>
       </c>
       <c r="E34">
-        <v>1.8075500000000001E-7</v>
+        <v>279864</v>
       </c>
       <c r="F34" t="s">
         <v>197</v>
@@ -6338,16 +6347,16 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C35">
-        <v>1350</v>
+        <v>450</v>
       </c>
       <c r="D35">
-        <v>0.57910799999999996</v>
+        <v>0.453511</v>
       </c>
       <c r="E35">
-        <v>49.941600000000001</v>
+        <v>8801.92</v>
       </c>
       <c r="F35" t="s">
         <v>197</v>
@@ -6358,16 +6367,16 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C36">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="D36">
-        <v>0.32656200000000002</v>
+        <v>0.63278800000000002</v>
       </c>
       <c r="E36">
-        <v>910.51</v>
+        <v>342.14699999999999</v>
       </c>
       <c r="F36" t="s">
         <v>142</v>
@@ -6378,19 +6387,19 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="C37">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="D37">
-        <v>0.18285399999999999</v>
+        <v>0.74163699999999999</v>
       </c>
       <c r="E37">
-        <v>2555.9699999999998</v>
+        <v>3.9220999999999999E-4</v>
       </c>
       <c r="F37" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6398,16 +6407,16 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C38">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="D38">
-        <v>0.56738999999999995</v>
+        <v>0.61951900000000004</v>
       </c>
       <c r="E38">
-        <v>1048.8399999999999</v>
+        <v>10.953200000000001</v>
       </c>
       <c r="F38" t="s">
         <v>142</v>
@@ -6418,19 +6427,19 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C39">
-        <v>2100</v>
+        <v>450</v>
       </c>
       <c r="D39">
-        <v>0.50928700000000005</v>
+        <v>0.56868200000000002</v>
       </c>
       <c r="E39">
-        <v>4.9065699999999997E-2</v>
+        <v>407.30099999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6438,16 +6447,16 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C40">
-        <v>2100</v>
+        <v>1950</v>
       </c>
       <c r="D40">
-        <v>0.53323200000000004</v>
+        <v>0.706677</v>
       </c>
       <c r="E40">
-        <v>0.14849300000000001</v>
+        <v>3.3890000000000003E-2</v>
       </c>
       <c r="F40" t="s">
         <v>142</v>
@@ -6458,19 +6467,19 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="C41">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="D41">
-        <v>0.60228599999999999</v>
+        <v>0.61596700000000004</v>
       </c>
       <c r="E41">
-        <v>24.202300000000001</v>
+        <v>7.5607100000000003</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6478,19 +6487,19 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="C42">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="D42">
-        <v>0.57200399999999996</v>
+        <v>0.578376</v>
       </c>
       <c r="E42">
-        <v>93.503</v>
+        <v>59.677100000000003</v>
       </c>
       <c r="F42" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6498,16 +6507,16 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C43">
         <v>1050</v>
       </c>
       <c r="D43">
-        <v>0.55166700000000002</v>
+        <v>0.55824300000000004</v>
       </c>
       <c r="E43">
-        <v>0.48558600000000002</v>
+        <v>115.059</v>
       </c>
       <c r="F43" t="s">
         <v>197</v>
@@ -6518,19 +6527,19 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="C44">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D44">
-        <v>0.156001</v>
+        <v>0.67724899999999999</v>
       </c>
       <c r="E44">
-        <v>279864</v>
+        <v>5.4546999999999998E-2</v>
       </c>
       <c r="F44" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6538,36 +6547,36 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="C45">
         <v>450</v>
       </c>
       <c r="D45">
-        <v>0.453511</v>
+        <v>0.47734900000000002</v>
       </c>
       <c r="E45">
-        <v>8801.92</v>
+        <v>19880.7</v>
       </c>
       <c r="F45" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C46">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D46">
-        <v>0.63278800000000002</v>
+        <v>2.1487099999999999</v>
       </c>
       <c r="E46">
-        <v>342.14699999999999</v>
+        <v>4.83168E-2</v>
       </c>
       <c r="F46" t="s">
         <v>142</v>
@@ -6575,22 +6584,22 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="C47">
-        <v>3300</v>
+        <v>4500</v>
       </c>
       <c r="D47">
-        <v>0.74163699999999999</v>
+        <v>1.80467</v>
       </c>
       <c r="E47">
-        <v>3.9220999999999999E-4</v>
+        <v>4.3336900000000003E-3</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6598,16 +6607,16 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C48">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="D48">
-        <v>0.61951900000000004</v>
+        <v>0.66626300000000005</v>
       </c>
       <c r="E48">
-        <v>10.953200000000001</v>
+        <v>4.6522099999999997E-2</v>
       </c>
       <c r="F48" t="s">
         <v>142</v>
@@ -6618,36 +6627,36 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="C49">
-        <v>450</v>
+        <v>1050</v>
       </c>
       <c r="D49">
-        <v>0.56868200000000002</v>
+        <v>0.54143699999999995</v>
       </c>
       <c r="E49">
-        <v>407.30099999999999</v>
+        <v>28.7059</v>
       </c>
       <c r="F49" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C50">
-        <v>1950</v>
+        <v>8100</v>
       </c>
       <c r="D50">
-        <v>0.706677</v>
+        <v>6.2821199999999999</v>
       </c>
       <c r="E50">
-        <v>3.3890000000000003E-2</v>
+        <v>1.2702599999999999E-7</v>
       </c>
       <c r="F50" t="s">
         <v>142</v>
@@ -6655,19 +6664,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C51">
-        <v>1050</v>
+        <v>7950</v>
       </c>
       <c r="D51">
-        <v>0.61596700000000004</v>
+        <v>6.4261999999999997</v>
       </c>
       <c r="E51">
-        <v>7.5607100000000003</v>
+        <v>1.0705E-7</v>
       </c>
       <c r="F51" t="s">
         <v>197</v>
@@ -6678,19 +6687,19 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="C52">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="D52">
-        <v>0.578376</v>
+        <v>0.34098600000000001</v>
       </c>
       <c r="E52">
-        <v>59.677100000000003</v>
+        <v>51111.3</v>
       </c>
       <c r="F52" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6698,19 +6707,19 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="C53">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="D53">
-        <v>0.55824300000000004</v>
+        <v>0.40117999999999998</v>
       </c>
       <c r="E53">
-        <v>115.059</v>
+        <v>7726.14</v>
       </c>
       <c r="F53" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6718,16 +6727,16 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C54">
-        <v>1800</v>
+        <v>1050</v>
       </c>
       <c r="D54">
-        <v>0.67724899999999999</v>
+        <v>0.585669</v>
       </c>
       <c r="E54">
-        <v>5.4546999999999998E-2</v>
+        <v>1039.79</v>
       </c>
       <c r="F54" t="s">
         <v>142</v>
@@ -6738,36 +6747,36 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="C55">
-        <v>450</v>
+        <v>1500</v>
       </c>
       <c r="D55">
-        <v>0.47734900000000002</v>
+        <v>0.65213600000000005</v>
       </c>
       <c r="E55">
-        <v>19880.7</v>
+        <v>0.37952200000000003</v>
       </c>
       <c r="F55" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C56">
-        <v>1200</v>
+        <v>1650</v>
       </c>
       <c r="D56">
-        <v>2.1487099999999999</v>
+        <v>0.60440099999999997</v>
       </c>
       <c r="E56">
-        <v>4.83168E-2</v>
+        <v>3.37256</v>
       </c>
       <c r="F56" t="s">
         <v>142</v>
@@ -6775,22 +6784,22 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="C57">
-        <v>4500</v>
+        <v>300</v>
       </c>
       <c r="D57">
-        <v>1.80467</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>4.3336900000000003E-3</v>
+        <v>11135.8</v>
       </c>
       <c r="F57" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -6798,19 +6807,19 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="C58">
-        <v>2400</v>
+        <v>750</v>
       </c>
       <c r="D58">
-        <v>0.66626300000000005</v>
+        <v>6.0354499999999998E-2</v>
       </c>
       <c r="E58">
-        <v>4.6522099999999997E-2</v>
+        <v>103.357</v>
       </c>
       <c r="F58" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6818,59 +6827,59 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="C59">
-        <v>1050</v>
+        <v>1350</v>
       </c>
       <c r="D59">
-        <v>0.54143699999999995</v>
+        <v>0.34465600000000002</v>
       </c>
       <c r="E59">
-        <v>28.7059</v>
+        <v>18.159199999999998</v>
       </c>
       <c r="F59" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="C60">
-        <v>8100</v>
+        <v>1500</v>
       </c>
       <c r="D60">
-        <v>6.2821199999999999</v>
+        <v>0.38053999999999999</v>
       </c>
       <c r="E60">
-        <v>1.2702599999999999E-7</v>
+        <v>6.3921599999999996</v>
       </c>
       <c r="F60" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="C61">
-        <v>7950</v>
+        <v>1200</v>
       </c>
       <c r="D61">
-        <v>6.4261999999999997</v>
+        <v>0.60487100000000005</v>
       </c>
       <c r="E61">
-        <v>1.0705E-7</v>
+        <v>38.871000000000002</v>
       </c>
       <c r="F61" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6878,16 +6887,16 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="C62">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="D62">
-        <v>0.34098600000000001</v>
+        <v>0.37082199999999998</v>
       </c>
       <c r="E62">
-        <v>51111.3</v>
+        <v>8755.2800000000007</v>
       </c>
       <c r="F62" t="s">
         <v>197</v>
@@ -6898,16 +6907,16 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="C63">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="D63">
-        <v>0.471748</v>
+        <v>0.61327200000000004</v>
       </c>
       <c r="E63">
-        <v>15314</v>
+        <v>80.987200000000001</v>
       </c>
       <c r="F63" t="s">
         <v>142</v>
@@ -6918,19 +6927,19 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="C64">
         <v>1200</v>
       </c>
       <c r="D64">
-        <v>0.57349600000000001</v>
+        <v>0.59582400000000002</v>
       </c>
       <c r="E64">
-        <v>46.26</v>
+        <v>8.9609000000000008E-3</v>
       </c>
       <c r="F64" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6938,16 +6947,16 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="C65">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="D65">
-        <v>0.40117999999999998</v>
+        <v>0.64536800000000005</v>
       </c>
       <c r="E65">
-        <v>7726.14</v>
+        <v>17.319700000000001</v>
       </c>
       <c r="F65" t="s">
         <v>142</v>
@@ -6958,16 +6967,16 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="C66">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="D66">
-        <v>0.585669</v>
+        <v>0.52732400000000001</v>
       </c>
       <c r="E66">
-        <v>1039.79</v>
+        <v>1876.63</v>
       </c>
       <c r="F66" t="s">
         <v>142</v>
@@ -6978,16 +6987,16 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="C67">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="D67">
-        <v>0.27400200000000002</v>
+        <v>0.55963499999999999</v>
       </c>
       <c r="E67">
-        <v>101913</v>
+        <v>779.96799999999996</v>
       </c>
       <c r="F67" t="s">
         <v>142</v>
@@ -6998,36 +7007,36 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="C68">
-        <v>300</v>
+        <v>2550</v>
       </c>
       <c r="D68">
-        <v>0.173903</v>
+        <v>0.68028999999999995</v>
       </c>
       <c r="E68">
-        <v>450138</v>
+        <v>3.5836700000000002E-5</v>
       </c>
       <c r="F68" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="C69">
-        <v>2700</v>
+        <v>450</v>
       </c>
       <c r="D69">
-        <v>2.23516</v>
+        <v>0.49613499999999999</v>
       </c>
       <c r="E69">
-        <v>3.7029599999999999E-3</v>
+        <v>3136.4</v>
       </c>
       <c r="F69" t="s">
         <v>197</v>
@@ -7035,19 +7044,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>2550</v>
+        <v>600</v>
       </c>
       <c r="D70">
-        <v>2.3571399999999998</v>
+        <v>0.58031500000000003</v>
       </c>
       <c r="E70">
-        <v>8.4107399999999999E-3</v>
+        <v>1210.52</v>
       </c>
       <c r="F70" t="s">
         <v>142</v>
@@ -7058,56 +7067,56 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="C71">
-        <v>1500</v>
+        <v>450</v>
       </c>
       <c r="D71">
-        <v>0.65213600000000005</v>
+        <v>0.20851700000000001</v>
       </c>
       <c r="E71">
-        <v>0.37952200000000003</v>
+        <v>90159.9</v>
       </c>
       <c r="F71" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="C72">
-        <v>1650</v>
+        <v>1050</v>
       </c>
       <c r="D72">
-        <v>0.60440099999999997</v>
+        <v>3.7476799999999999</v>
       </c>
       <c r="E72">
-        <v>3.37256</v>
+        <v>2.0988699999999999E-2</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C73">
-        <v>300</v>
+        <v>2250</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>5.7564399999999996</v>
       </c>
       <c r="E73">
-        <v>11135.8</v>
+        <v>1.94117E-2</v>
       </c>
       <c r="F73" t="s">
         <v>142</v>
@@ -7115,19 +7124,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="C74">
-        <v>750</v>
+        <v>2250</v>
       </c>
       <c r="D74">
-        <v>6.0354499999999998E-2</v>
+        <v>6.0603400000000001</v>
       </c>
       <c r="E74">
-        <v>103.357</v>
+        <v>1.90151E-2</v>
       </c>
       <c r="F74" t="s">
         <v>197</v>
@@ -7138,16 +7147,16 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C75">
-        <v>1350</v>
+        <v>750</v>
       </c>
       <c r="D75">
-        <v>0.34465600000000002</v>
+        <v>0.44874199999999997</v>
       </c>
       <c r="E75">
-        <v>18.159199999999998</v>
+        <v>219.41200000000001</v>
       </c>
       <c r="F75" t="s">
         <v>142</v>
@@ -7158,19 +7167,19 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="C76">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="D76">
-        <v>0.38053999999999999</v>
+        <v>0.59453199999999995</v>
       </c>
       <c r="E76">
-        <v>6.3921599999999996</v>
+        <v>1171.1199999999999</v>
       </c>
       <c r="F76" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -7178,16 +7187,16 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="C77">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="D77">
-        <v>0.60487100000000005</v>
+        <v>0.41186400000000001</v>
       </c>
       <c r="E77">
-        <v>38.871000000000002</v>
+        <v>20039.5</v>
       </c>
       <c r="F77" t="s">
         <v>142</v>
@@ -7198,16 +7207,16 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C78">
-        <v>300</v>
+        <v>1050</v>
       </c>
       <c r="D78">
-        <v>0.37082199999999998</v>
+        <v>0.496865</v>
       </c>
       <c r="E78">
-        <v>8755.2800000000007</v>
+        <v>77.080299999999994</v>
       </c>
       <c r="F78" t="s">
         <v>197</v>
@@ -7218,16 +7227,16 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="C79">
-        <v>1950</v>
+        <v>1200</v>
       </c>
       <c r="D79">
-        <v>0.64384399999999997</v>
+        <v>0.57255999999999996</v>
       </c>
       <c r="E79">
-        <v>0.54308400000000001</v>
+        <v>3.6305999999999998</v>
       </c>
       <c r="F79" t="s">
         <v>142</v>
@@ -7238,19 +7247,19 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C80">
-        <v>1800</v>
+        <v>1050</v>
       </c>
       <c r="D80">
-        <v>0.60951200000000005</v>
+        <v>0.593055</v>
       </c>
       <c r="E80">
-        <v>9.8737599999999995E-2</v>
+        <v>6.2041700000000004</v>
       </c>
       <c r="F80" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -7258,16 +7267,16 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="C81">
         <v>1200</v>
       </c>
       <c r="D81">
-        <v>0.61327200000000004</v>
+        <v>0.62231999999999998</v>
       </c>
       <c r="E81">
-        <v>80.987200000000001</v>
+        <v>0.12725800000000001</v>
       </c>
       <c r="F81" t="s">
         <v>142</v>
@@ -7278,16 +7287,16 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="C82">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="D82">
-        <v>0.59582400000000002</v>
+        <v>0.288219</v>
       </c>
       <c r="E82">
-        <v>8.9609000000000008E-3</v>
+        <v>24564.3</v>
       </c>
       <c r="F82" t="s">
         <v>142</v>
@@ -7298,16 +7307,16 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="C83">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D83">
-        <v>0.64536800000000005</v>
+        <v>0.306313</v>
       </c>
       <c r="E83">
-        <v>17.319700000000001</v>
+        <v>22556</v>
       </c>
       <c r="F83" t="s">
         <v>142</v>
@@ -7318,16 +7327,16 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C84">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="D84">
-        <v>0.52732400000000001</v>
+        <v>0.54283300000000001</v>
       </c>
       <c r="E84">
-        <v>1876.63</v>
+        <v>4342.47</v>
       </c>
       <c r="F84" t="s">
         <v>142</v>
@@ -7338,16 +7347,16 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C85">
-        <v>600</v>
+        <v>2550</v>
       </c>
       <c r="D85">
-        <v>0.55963499999999999</v>
+        <v>0.661435</v>
       </c>
       <c r="E85">
-        <v>779.96799999999996</v>
+        <v>2.2257300000000001E-2</v>
       </c>
       <c r="F85" t="s">
         <v>142</v>
@@ -7358,36 +7367,36 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="C86">
-        <v>2550</v>
+        <v>600</v>
       </c>
       <c r="D86">
-        <v>0.68028999999999995</v>
+        <v>0.40534700000000001</v>
       </c>
       <c r="E86">
-        <v>3.5836700000000002E-5</v>
+        <v>2653.52</v>
       </c>
       <c r="F86" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C87">
-        <v>450</v>
+        <v>4800</v>
       </c>
       <c r="D87">
-        <v>0.49613499999999999</v>
+        <v>2.4218500000000001</v>
       </c>
       <c r="E87">
-        <v>3136.4</v>
+        <v>6.8481599999999998E-3</v>
       </c>
       <c r="F87" t="s">
         <v>197</v>
@@ -7395,19 +7404,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C88">
-        <v>600</v>
+        <v>3600</v>
       </c>
       <c r="D88">
-        <v>0.58031500000000003</v>
+        <v>2.7800799999999999</v>
       </c>
       <c r="E88">
-        <v>1210.52</v>
+        <v>1.52531E-3</v>
       </c>
       <c r="F88" t="s">
         <v>142</v>
@@ -7418,16 +7427,16 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="C89">
         <v>450</v>
       </c>
       <c r="D89">
-        <v>0.20851700000000001</v>
+        <v>0.51009099999999996</v>
       </c>
       <c r="E89">
-        <v>90159.9</v>
+        <v>10708.1</v>
       </c>
       <c r="F89" t="s">
         <v>142</v>
@@ -7435,59 +7444,59 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="C90">
-        <v>1050</v>
+        <v>7800</v>
       </c>
       <c r="D90">
-        <v>3.7476799999999999</v>
+        <v>0.58369499999999996</v>
       </c>
       <c r="E90">
-        <v>2.0988699999999999E-2</v>
+        <v>19.4649</v>
       </c>
       <c r="F90" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C91">
-        <v>2250</v>
+        <v>7950</v>
       </c>
       <c r="D91">
-        <v>5.7564399999999996</v>
+        <v>0.61898600000000004</v>
       </c>
       <c r="E91">
-        <v>1.94117E-2</v>
+        <v>95.046599999999998</v>
       </c>
       <c r="F91" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C92">
-        <v>2250</v>
+        <v>300</v>
       </c>
       <c r="D92">
-        <v>6.0603400000000001</v>
+        <v>2.5573900000000001E-3</v>
       </c>
       <c r="E92">
-        <v>1.90151E-2</v>
+        <v>5522.76</v>
       </c>
       <c r="F92" t="s">
         <v>197</v>
@@ -7498,19 +7507,19 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C93">
-        <v>750</v>
+        <v>3300</v>
       </c>
       <c r="D93">
-        <v>0.44874199999999997</v>
+        <v>0.34664299999999998</v>
       </c>
       <c r="E93">
-        <v>219.41200000000001</v>
+        <v>1.81656E-3</v>
       </c>
       <c r="F93" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -7518,16 +7527,16 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="C94">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="D94">
-        <v>0.59453199999999995</v>
+        <v>0.32750899999999999</v>
       </c>
       <c r="E94">
-        <v>1171.1199999999999</v>
+        <v>2.0329200000000001E-3</v>
       </c>
       <c r="F94" t="s">
         <v>142</v>
@@ -7538,19 +7547,19 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="C95">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="D95">
-        <v>0.41186400000000001</v>
+        <v>0.43066500000000002</v>
       </c>
       <c r="E95">
-        <v>20039.5</v>
+        <v>417.01799999999997</v>
       </c>
       <c r="F95" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -7558,19 +7567,19 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="C96">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="D96">
-        <v>0.496865</v>
+        <v>0.48941200000000001</v>
       </c>
       <c r="E96">
-        <v>77.080299999999994</v>
+        <v>1146.17</v>
       </c>
       <c r="F96" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -7578,16 +7587,16 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="C97">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="D97">
-        <v>0.57255999999999996</v>
+        <v>0.63330500000000001</v>
       </c>
       <c r="E97">
-        <v>3.6305999999999998</v>
+        <v>4.1916200000000003</v>
       </c>
       <c r="F97" t="s">
         <v>142</v>
@@ -7598,16 +7607,16 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="C98">
         <v>1050</v>
       </c>
       <c r="D98">
-        <v>0.593055</v>
+        <v>0.62776600000000005</v>
       </c>
       <c r="E98">
-        <v>6.2041700000000004</v>
+        <v>4.5779199999999998</v>
       </c>
       <c r="F98" t="s">
         <v>142</v>
@@ -7615,39 +7624,39 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="C99">
-        <v>1200</v>
+        <v>3150</v>
       </c>
       <c r="D99">
-        <v>0.62231999999999998</v>
+        <v>38.364600000000003</v>
       </c>
       <c r="E99">
-        <v>0.12725800000000001</v>
+        <v>6.0713300000000004E-9</v>
       </c>
       <c r="F99" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="C100">
-        <v>600</v>
+        <v>3150</v>
       </c>
       <c r="D100">
-        <v>0.288219</v>
+        <v>70.784999999999997</v>
       </c>
       <c r="E100">
-        <v>24564.3</v>
+        <v>3.0356700000000001E-9</v>
       </c>
       <c r="F100" t="s">
         <v>142</v>
@@ -7658,16 +7667,16 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="C101">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="D101">
-        <v>0.306313</v>
+        <v>0.52603100000000003</v>
       </c>
       <c r="E101">
-        <v>22556</v>
+        <v>262.45600000000002</v>
       </c>
       <c r="F101" t="s">
         <v>142</v>
@@ -7678,19 +7687,19 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="C102">
         <v>450</v>
       </c>
       <c r="D102">
-        <v>0.54283300000000001</v>
+        <v>0.36144500000000002</v>
       </c>
       <c r="E102">
-        <v>4342.47</v>
+        <v>53403.6</v>
       </c>
       <c r="F102" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -7698,19 +7707,19 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C103">
-        <v>1650</v>
+        <v>2550</v>
       </c>
       <c r="D103">
-        <v>0.62121400000000004</v>
+        <v>0.739591</v>
       </c>
       <c r="E103">
-        <v>1.52005E-3</v>
+        <v>4.6511499999999997E-2</v>
       </c>
       <c r="F103" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -7718,19 +7727,19 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="C104">
-        <v>1650</v>
+        <v>1800</v>
       </c>
       <c r="D104">
-        <v>0.67724899999999999</v>
+        <v>0.61164399999999997</v>
       </c>
       <c r="E104">
-        <v>4.2564999999999999E-2</v>
+        <v>1.07738E-2</v>
       </c>
       <c r="F104" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -7738,16 +7747,16 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C105">
-        <v>2550</v>
+        <v>1650</v>
       </c>
       <c r="D105">
-        <v>0.661435</v>
+        <v>0.65468999999999999</v>
       </c>
       <c r="E105">
-        <v>2.2257300000000001E-2</v>
+        <v>1.72474E-2</v>
       </c>
       <c r="F105" t="s">
         <v>142</v>
@@ -7758,16 +7767,16 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C106">
         <v>600</v>
       </c>
       <c r="D106">
-        <v>0.40534700000000001</v>
+        <v>0.25957599999999997</v>
       </c>
       <c r="E106">
-        <v>2653.52</v>
+        <v>3674.18</v>
       </c>
       <c r="F106" t="s">
         <v>197</v>
@@ -7775,39 +7784,39 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="C107">
-        <v>4800</v>
+        <v>300</v>
       </c>
       <c r="D107">
-        <v>2.4218500000000001</v>
+        <v>7.4962699999999993E-2</v>
       </c>
       <c r="E107">
-        <v>6.8481599999999998E-3</v>
+        <v>174365</v>
       </c>
       <c r="F107" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C108">
-        <v>3600</v>
+        <v>1350</v>
       </c>
       <c r="D108">
-        <v>2.7800799999999999</v>
+        <v>0.67724899999999999</v>
       </c>
       <c r="E108">
-        <v>1.52531E-3</v>
+        <v>0.97888299999999995</v>
       </c>
       <c r="F108" t="s">
         <v>142</v>
@@ -7818,19 +7827,19 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C109">
-        <v>450</v>
+        <v>1950</v>
       </c>
       <c r="D109">
-        <v>0.51009099999999996</v>
+        <v>0.29862499999999997</v>
       </c>
       <c r="E109">
-        <v>10708.1</v>
+        <v>0.43519799999999997</v>
       </c>
       <c r="F109" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -7838,16 +7847,16 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C110">
-        <v>7800</v>
+        <v>300</v>
       </c>
       <c r="D110">
-        <v>0.58369499999999996</v>
+        <v>0.255907</v>
       </c>
       <c r="E110">
-        <v>19.4649</v>
+        <v>171923</v>
       </c>
       <c r="F110" t="s">
         <v>142</v>
@@ -7858,56 +7867,56 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="C111">
-        <v>7950</v>
+        <v>1800</v>
       </c>
       <c r="D111">
-        <v>0.61898600000000004</v>
+        <v>0.63933700000000004</v>
       </c>
       <c r="E111">
-        <v>95.046599999999998</v>
+        <v>0.25578299999999998</v>
       </c>
       <c r="F111" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="C112">
-        <v>300</v>
+        <v>13800</v>
       </c>
       <c r="D112">
-        <v>2.5573900000000001E-3</v>
+        <v>2.1223299999999998</v>
       </c>
       <c r="E112">
-        <v>5522.76</v>
+        <v>8.8718300000000007E-6</v>
       </c>
       <c r="F112" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C113">
-        <v>3300</v>
+        <v>13500</v>
       </c>
       <c r="D113">
-        <v>0.34664299999999998</v>
+        <v>2.07342</v>
       </c>
       <c r="E113">
-        <v>1.81656E-3</v>
+        <v>0</v>
       </c>
       <c r="F113" t="s">
         <v>197</v>
@@ -7918,19 +7927,19 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C114">
-        <v>3000</v>
+        <v>450</v>
       </c>
       <c r="D114">
-        <v>0.32750899999999999</v>
+        <v>0.426232</v>
       </c>
       <c r="E114">
-        <v>2.0329200000000001E-3</v>
+        <v>32252.400000000001</v>
       </c>
       <c r="F114" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -7938,19 +7947,19 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="C115">
-        <v>750</v>
+        <v>2400</v>
       </c>
       <c r="D115">
-        <v>0.43066500000000002</v>
+        <v>0.67272500000000002</v>
       </c>
       <c r="E115">
-        <v>417.01799999999997</v>
+        <v>3.4631000000000002E-2</v>
       </c>
       <c r="F115" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -7958,16 +7967,16 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C116">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="D116">
-        <v>0.48941200000000001</v>
+        <v>0.69718999999999998</v>
       </c>
       <c r="E116">
-        <v>1146.17</v>
+        <v>3.5330599999999997E-2</v>
       </c>
       <c r="F116" t="s">
         <v>142</v>
@@ -7978,16 +7987,16 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C117">
         <v>900</v>
       </c>
       <c r="D117">
-        <v>0.63330500000000001</v>
+        <v>0.58850000000000002</v>
       </c>
       <c r="E117">
-        <v>4.1916200000000003</v>
+        <v>305.85000000000002</v>
       </c>
       <c r="F117" t="s">
         <v>142</v>
@@ -7995,19 +8004,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C118">
-        <v>1050</v>
+        <v>5700</v>
       </c>
       <c r="D118">
-        <v>0.62776600000000005</v>
+        <v>1.9025000000000001</v>
       </c>
       <c r="E118">
-        <v>4.5779199999999998</v>
+        <v>0</v>
       </c>
       <c r="F118" t="s">
         <v>142</v>
@@ -8018,16 +8027,16 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="C119">
-        <v>3150</v>
+        <v>5550</v>
       </c>
       <c r="D119">
-        <v>38.364600000000003</v>
+        <v>1.8487899999999999</v>
       </c>
       <c r="E119">
-        <v>6.0713300000000004E-9</v>
+        <v>0</v>
       </c>
       <c r="F119" t="s">
         <v>197</v>
@@ -8035,22 +8044,22 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="C120">
-        <v>3150</v>
+        <v>450</v>
       </c>
       <c r="D120">
-        <v>70.784999999999997</v>
+        <v>0.213116</v>
       </c>
       <c r="E120">
-        <v>3.0356700000000001E-9</v>
+        <v>30826.3</v>
       </c>
       <c r="F120" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -8058,19 +8067,19 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="C121">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="D121">
-        <v>0.52603100000000003</v>
+        <v>0.11934500000000001</v>
       </c>
       <c r="E121">
-        <v>262.45600000000002</v>
+        <v>7537.47</v>
       </c>
       <c r="F121" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -8078,19 +8087,19 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="C122">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="D122">
-        <v>0.36144500000000002</v>
+        <v>0.12407600000000001</v>
       </c>
       <c r="E122">
-        <v>53403.6</v>
+        <v>304105</v>
       </c>
       <c r="F122" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -8098,19 +8107,19 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="C123">
-        <v>2550</v>
+        <v>2100</v>
       </c>
       <c r="D123">
-        <v>0.739591</v>
+        <v>0.62875400000000004</v>
       </c>
       <c r="E123">
-        <v>4.6511499999999997E-2</v>
+        <v>9.38575E-3</v>
       </c>
       <c r="F123" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -8118,19 +8127,19 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="C124">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="D124">
-        <v>0.61164399999999997</v>
+        <v>0.62231999999999998</v>
       </c>
       <c r="E124">
-        <v>1.07738E-2</v>
+        <v>1.72993E-4</v>
       </c>
       <c r="F124" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -8138,16 +8147,16 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C125">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="D125">
-        <v>0.65468999999999999</v>
+        <v>0.67401800000000001</v>
       </c>
       <c r="E125">
-        <v>1.72474E-2</v>
+        <v>1.6355900000000001</v>
       </c>
       <c r="F125" t="s">
         <v>142</v>
@@ -8158,39 +8167,39 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="C126">
         <v>600</v>
       </c>
       <c r="D126">
-        <v>0.25957599999999997</v>
+        <v>0.53378599999999998</v>
       </c>
       <c r="E126">
-        <v>3674.18</v>
+        <v>1013.78</v>
       </c>
       <c r="F126" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C127">
-        <v>1350</v>
+        <v>149100</v>
       </c>
       <c r="D127">
-        <v>0.65082499999999999</v>
+        <v>2.9904700000000002</v>
       </c>
       <c r="E127">
-        <v>3.4468299999999998</v>
+        <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -8198,19 +8207,19 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="C128">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="D128">
-        <v>0.65878499999999995</v>
+        <v>0.37739800000000001</v>
       </c>
       <c r="E128">
-        <v>4.3983099999999997E-2</v>
+        <v>9660.68</v>
       </c>
       <c r="F128" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -8218,465 +8227,25 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C129">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D129">
-        <v>7.4962699999999993E-2</v>
+        <v>0.40662599999999999</v>
       </c>
       <c r="E129">
-        <v>174365</v>
+        <v>15673.4</v>
       </c>
       <c r="F129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" t="s">
-        <v>53</v>
-      </c>
-      <c r="C130">
-        <v>1350</v>
-      </c>
-      <c r="D130">
-        <v>0.67724899999999999</v>
-      </c>
-      <c r="E130">
-        <v>0.97888299999999995</v>
-      </c>
-      <c r="F130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B131" t="s">
-        <v>159</v>
-      </c>
-      <c r="C131">
-        <v>1950</v>
-      </c>
-      <c r="D131">
-        <v>0.29862499999999997</v>
-      </c>
-      <c r="E131">
-        <v>0.43519799999999997</v>
-      </c>
-      <c r="F131" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" t="s">
-        <v>51</v>
-      </c>
-      <c r="C132">
-        <v>300</v>
-      </c>
-      <c r="D132">
-        <v>0.255907</v>
-      </c>
-      <c r="E132">
-        <v>171923</v>
-      </c>
-      <c r="F132" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" t="s">
-        <v>55</v>
-      </c>
-      <c r="C133">
-        <v>1800</v>
-      </c>
-      <c r="D133">
-        <v>0.63933700000000004</v>
-      </c>
-      <c r="E133">
-        <v>0.25578299999999998</v>
-      </c>
-      <c r="F133" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>16</v>
-      </c>
-      <c r="B134" t="s">
-        <v>60</v>
-      </c>
-      <c r="C134">
-        <v>13800</v>
-      </c>
-      <c r="D134">
-        <v>2.1223299999999998</v>
-      </c>
-      <c r="E134">
-        <v>8.8718300000000007E-6</v>
-      </c>
-      <c r="F134" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>16</v>
-      </c>
-      <c r="B135" t="s">
-        <v>162</v>
-      </c>
-      <c r="C135">
-        <v>13500</v>
-      </c>
-      <c r="D135">
-        <v>2.07342</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" t="s">
-        <v>161</v>
-      </c>
-      <c r="C136">
-        <v>450</v>
-      </c>
-      <c r="D136">
-        <v>0.426232</v>
-      </c>
-      <c r="E136">
-        <v>32252.400000000001</v>
-      </c>
-      <c r="F136" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B137" t="s">
-        <v>58</v>
-      </c>
-      <c r="C137">
-        <v>2400</v>
-      </c>
-      <c r="D137">
-        <v>0.67272500000000002</v>
-      </c>
-      <c r="E137">
-        <v>3.4631000000000002E-2</v>
-      </c>
-      <c r="F137" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" t="s">
-        <v>59</v>
-      </c>
-      <c r="C138">
-        <v>2100</v>
-      </c>
-      <c r="D138">
-        <v>0.69718999999999998</v>
-      </c>
-      <c r="E138">
-        <v>3.5330599999999997E-2</v>
-      </c>
-      <c r="F138" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B139" t="s">
-        <v>62</v>
-      </c>
-      <c r="C139">
-        <v>900</v>
-      </c>
-      <c r="D139">
-        <v>0.58850000000000002</v>
-      </c>
-      <c r="E139">
-        <v>305.85000000000002</v>
-      </c>
-      <c r="F139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>16</v>
-      </c>
-      <c r="B140" t="s">
-        <v>63</v>
-      </c>
-      <c r="C140">
-        <v>5700</v>
-      </c>
-      <c r="D140">
-        <v>1.9025000000000001</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>16</v>
-      </c>
-      <c r="B141" t="s">
-        <v>163</v>
-      </c>
-      <c r="C141">
-        <v>5550</v>
-      </c>
-      <c r="D141">
-        <v>1.8487899999999999</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B142" t="s">
-        <v>164</v>
-      </c>
-      <c r="C142">
-        <v>450</v>
-      </c>
-      <c r="D142">
-        <v>0.213116</v>
-      </c>
-      <c r="E142">
-        <v>30826.3</v>
-      </c>
-      <c r="F142" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B143" t="s">
-        <v>165</v>
-      </c>
-      <c r="C143">
-        <v>450</v>
-      </c>
-      <c r="D143">
-        <v>0.11934500000000001</v>
-      </c>
-      <c r="E143">
-        <v>7537.47</v>
-      </c>
-      <c r="F143" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B144" t="s">
-        <v>64</v>
-      </c>
-      <c r="C144">
-        <v>300</v>
-      </c>
-      <c r="D144">
-        <v>0.12407600000000001</v>
-      </c>
-      <c r="E144">
-        <v>304105</v>
-      </c>
-      <c r="F144" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" t="s">
-        <v>166</v>
-      </c>
-      <c r="C145">
-        <v>2100</v>
-      </c>
-      <c r="D145">
-        <v>0.62875400000000004</v>
-      </c>
-      <c r="E145">
-        <v>9.38575E-3</v>
-      </c>
-      <c r="F145" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B146" t="s">
-        <v>65</v>
-      </c>
-      <c r="C146">
-        <v>2400</v>
-      </c>
-      <c r="D146">
-        <v>0.62231999999999998</v>
-      </c>
-      <c r="E146">
-        <v>1.72993E-4</v>
-      </c>
-      <c r="F146" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" t="s">
-        <v>66</v>
-      </c>
-      <c r="C147">
-        <v>1200</v>
-      </c>
-      <c r="D147">
-        <v>0.67401800000000001</v>
-      </c>
-      <c r="E147">
-        <v>1.6355900000000001</v>
-      </c>
-      <c r="F147" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" t="s">
-        <v>67</v>
-      </c>
-      <c r="C148">
-        <v>600</v>
-      </c>
-      <c r="D148">
-        <v>0.53378599999999998</v>
-      </c>
-      <c r="E148">
-        <v>1013.78</v>
-      </c>
-      <c r="F148" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>16</v>
-      </c>
-      <c r="B149" t="s">
-        <v>167</v>
-      </c>
-      <c r="C149">
-        <v>149100</v>
-      </c>
-      <c r="D149">
-        <v>2.9904700000000002</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" t="s">
-        <v>68</v>
-      </c>
-      <c r="C150">
-        <v>600</v>
-      </c>
-      <c r="D150">
-        <v>0.37739800000000001</v>
-      </c>
-      <c r="E150">
-        <v>9660.68</v>
-      </c>
-      <c r="F150" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B151" t="s">
-        <v>68</v>
-      </c>
-      <c r="C151">
-        <v>600</v>
-      </c>
-      <c r="D151">
-        <v>0.40662599999999999</v>
-      </c>
-      <c r="E151">
-        <v>15673.4</v>
-      </c>
-      <c r="F151" t="s">
         <v>197</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F151" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F151">
-      <sortCondition ref="B1:B151"/>
+  <autoFilter ref="A1:F129" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F129">
+      <sortCondition ref="B1:B129"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8684,17 +8253,6017 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FF762D-5039-4E2C-A201-D59E18E2DDC2}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01F241B-3B4E-411B-AD09-85FACF6C5078}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="207" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>900</v>
+      </c>
+      <c r="D2">
+        <v>0.33862500000000001</v>
+      </c>
+      <c r="E2">
+        <v>594.62900000000002</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1650</v>
+      </c>
+      <c r="D3">
+        <v>0.60017100000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.95018</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>900</v>
+      </c>
+      <c r="D4">
+        <v>0.60314800000000002</v>
+      </c>
+      <c r="E4">
+        <v>4.7340400000000002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+      <c r="D5">
+        <v>0.55188000000000004</v>
+      </c>
+      <c r="E5">
+        <v>1867.2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>1200</v>
+      </c>
+      <c r="D6">
+        <v>0.65721600000000002</v>
+      </c>
+      <c r="E6">
+        <v>33.758800000000001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1650</v>
+      </c>
+      <c r="D7">
+        <v>4.0540900000000004</v>
+      </c>
+      <c r="E7">
+        <v>2.7456700000000001E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>750</v>
+      </c>
+      <c r="D8">
+        <v>0.51595000000000002</v>
+      </c>
+      <c r="E8">
+        <v>6921.74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <v>600</v>
+      </c>
+      <c r="D9">
+        <v>0.33474700000000002</v>
+      </c>
+      <c r="E9">
+        <v>18635.7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>450</v>
+      </c>
+      <c r="D10">
+        <v>0.48424200000000001</v>
+      </c>
+      <c r="E10">
+        <v>13048.9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>600</v>
+      </c>
+      <c r="D11">
+        <v>0.46270099999999997</v>
+      </c>
+      <c r="E11">
+        <v>8961.77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <v>1200</v>
+      </c>
+      <c r="D12">
+        <v>0.59259300000000004</v>
+      </c>
+      <c r="E12">
+        <v>84.442300000000003</v>
+      </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13">
+        <v>600</v>
+      </c>
+      <c r="D13">
+        <v>0.37998300000000002</v>
+      </c>
+      <c r="E13">
+        <v>4987.83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>4200</v>
+      </c>
+      <c r="D14">
+        <v>0.74538000000000004</v>
+      </c>
+      <c r="E14">
+        <v>7.1689600000000001E-6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <v>1050</v>
+      </c>
+      <c r="D15">
+        <v>0.682419</v>
+      </c>
+      <c r="E15">
+        <v>59.388399999999997</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16">
+        <v>900</v>
+      </c>
+      <c r="D16">
+        <v>0.60314800000000002</v>
+      </c>
+      <c r="E16">
+        <v>9.6919599999999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <v>300</v>
+      </c>
+      <c r="D17">
+        <v>0.237813</v>
+      </c>
+      <c r="E17">
+        <v>291317</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18">
+        <v>750</v>
+      </c>
+      <c r="D18">
+        <v>0.46011600000000002</v>
+      </c>
+      <c r="E18">
+        <v>4.8738400000000004</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19">
+        <v>750</v>
+      </c>
+      <c r="D19">
+        <v>0.55420700000000001</v>
+      </c>
+      <c r="E19">
+        <v>2259.44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <v>450</v>
+      </c>
+      <c r="D20">
+        <v>0.31019000000000002</v>
+      </c>
+      <c r="E20">
+        <v>19567.900000000001</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21">
+        <v>900</v>
+      </c>
+      <c r="D21">
+        <v>0.32656200000000002</v>
+      </c>
+      <c r="E21">
+        <v>910.51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22">
+        <v>600</v>
+      </c>
+      <c r="D22">
+        <v>0.56738999999999995</v>
+      </c>
+      <c r="E22">
+        <v>1048.8399999999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23">
+        <v>1200</v>
+      </c>
+      <c r="D23">
+        <v>0.60228599999999999</v>
+      </c>
+      <c r="E23">
+        <v>24.202300000000001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>750</v>
+      </c>
+      <c r="D24">
+        <v>0.63278800000000002</v>
+      </c>
+      <c r="E24">
+        <v>342.14699999999999</v>
+      </c>
+      <c r="F24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25">
+        <v>3300</v>
+      </c>
+      <c r="D25">
+        <v>0.74163699999999999</v>
+      </c>
+      <c r="E25">
+        <v>3.9220999999999999E-4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26">
+        <v>900</v>
+      </c>
+      <c r="D26">
+        <v>0.61951900000000004</v>
+      </c>
+      <c r="E26">
+        <v>10.953200000000001</v>
+      </c>
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27">
+        <v>450</v>
+      </c>
+      <c r="D27">
+        <v>0.56868200000000002</v>
+      </c>
+      <c r="E27">
+        <v>407.30099999999999</v>
+      </c>
+      <c r="F27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28">
+        <v>1950</v>
+      </c>
+      <c r="D28">
+        <v>0.706677</v>
+      </c>
+      <c r="E28">
+        <v>3.3890000000000003E-2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29">
+        <v>1200</v>
+      </c>
+      <c r="D29">
+        <v>0.578376</v>
+      </c>
+      <c r="E29">
+        <v>59.677100000000003</v>
+      </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30">
+        <v>1800</v>
+      </c>
+      <c r="D30">
+        <v>0.67724899999999999</v>
+      </c>
+      <c r="E30">
+        <v>5.4546999999999998E-2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31">
+        <v>450</v>
+      </c>
+      <c r="D31">
+        <v>0.47734900000000002</v>
+      </c>
+      <c r="E31">
+        <v>19880.7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32">
+        <v>1200</v>
+      </c>
+      <c r="D32">
+        <v>2.1487099999999999</v>
+      </c>
+      <c r="E32">
+        <v>4.83168E-2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33">
+        <v>2400</v>
+      </c>
+      <c r="D33">
+        <v>0.66626300000000005</v>
+      </c>
+      <c r="E33">
+        <v>4.6522099999999997E-2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34">
+        <v>8100</v>
+      </c>
+      <c r="D34">
+        <v>6.2821199999999999</v>
+      </c>
+      <c r="E34">
+        <v>1.2702599999999999E-7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35">
+        <v>750</v>
+      </c>
+      <c r="D35">
+        <v>0.40117999999999998</v>
+      </c>
+      <c r="E35">
+        <v>7726.14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36">
+        <v>1050</v>
+      </c>
+      <c r="D36">
+        <v>0.585669</v>
+      </c>
+      <c r="E36">
+        <v>1039.79</v>
+      </c>
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37">
+        <v>1650</v>
+      </c>
+      <c r="D37">
+        <v>0.60440099999999997</v>
+      </c>
+      <c r="E37">
+        <v>3.37256</v>
+      </c>
+      <c r="F37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38">
+        <v>300</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>11135.8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39">
+        <v>1350</v>
+      </c>
+      <c r="D39">
+        <v>0.34465600000000002</v>
+      </c>
+      <c r="E39">
+        <v>18.159199999999998</v>
+      </c>
+      <c r="F39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>1200</v>
+      </c>
+      <c r="D40">
+        <v>0.60487100000000005</v>
+      </c>
+      <c r="E40">
+        <v>38.871000000000002</v>
+      </c>
+      <c r="F40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>1200</v>
+      </c>
+      <c r="D41">
+        <v>0.61327200000000004</v>
+      </c>
+      <c r="E41">
+        <v>80.987200000000001</v>
+      </c>
+      <c r="F41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>1200</v>
+      </c>
+      <c r="D42">
+        <v>0.59582400000000002</v>
+      </c>
+      <c r="E42">
+        <v>8.9609000000000008E-3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>900</v>
+      </c>
+      <c r="D43">
+        <v>0.64536800000000005</v>
+      </c>
+      <c r="E43">
+        <v>17.319700000000001</v>
+      </c>
+      <c r="F43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>750</v>
+      </c>
+      <c r="D44">
+        <v>0.52732400000000001</v>
+      </c>
+      <c r="E44">
+        <v>1876.63</v>
+      </c>
+      <c r="F44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>600</v>
+      </c>
+      <c r="D45">
+        <v>0.55963499999999999</v>
+      </c>
+      <c r="E45">
+        <v>779.96799999999996</v>
+      </c>
+      <c r="F45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46">
+        <v>2550</v>
+      </c>
+      <c r="D46">
+        <v>0.68028999999999995</v>
+      </c>
+      <c r="E46">
+        <v>3.5836700000000002E-5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>600</v>
+      </c>
+      <c r="D47">
+        <v>0.58031500000000003</v>
+      </c>
+      <c r="E47">
+        <v>1210.52</v>
+      </c>
+      <c r="F47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48">
+        <v>450</v>
+      </c>
+      <c r="D48">
+        <v>0.20851700000000001</v>
+      </c>
+      <c r="E48">
+        <v>90159.9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49">
+        <v>750</v>
+      </c>
+      <c r="D49">
+        <v>0.44874199999999997</v>
+      </c>
+      <c r="E49">
+        <v>219.41200000000001</v>
+      </c>
+      <c r="F49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50">
+        <v>600</v>
+      </c>
+      <c r="D50">
+        <v>0.59453199999999995</v>
+      </c>
+      <c r="E50">
+        <v>1171.1199999999999</v>
+      </c>
+      <c r="F50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51">
+        <v>450</v>
+      </c>
+      <c r="D51">
+        <v>0.41186400000000001</v>
+      </c>
+      <c r="E51">
+        <v>20039.5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52">
+        <v>1200</v>
+      </c>
+      <c r="D52">
+        <v>0.57255999999999996</v>
+      </c>
+      <c r="E52">
+        <v>3.6305999999999998</v>
+      </c>
+      <c r="F52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53">
+        <v>1050</v>
+      </c>
+      <c r="D53">
+        <v>0.593055</v>
+      </c>
+      <c r="E53">
+        <v>6.2041700000000004</v>
+      </c>
+      <c r="F53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54">
+        <v>1200</v>
+      </c>
+      <c r="D54">
+        <v>0.62231999999999998</v>
+      </c>
+      <c r="E54">
+        <v>0.12725800000000001</v>
+      </c>
+      <c r="F54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55">
+        <v>600</v>
+      </c>
+      <c r="D55">
+        <v>0.288219</v>
+      </c>
+      <c r="E55">
+        <v>24564.3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56">
+        <v>600</v>
+      </c>
+      <c r="D56">
+        <v>0.306313</v>
+      </c>
+      <c r="E56">
+        <v>22556</v>
+      </c>
+      <c r="F56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57">
+        <v>450</v>
+      </c>
+      <c r="D57">
+        <v>0.54283300000000001</v>
+      </c>
+      <c r="E57">
+        <v>4342.47</v>
+      </c>
+      <c r="F57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58">
+        <v>2550</v>
+      </c>
+      <c r="D58">
+        <v>0.661435</v>
+      </c>
+      <c r="E58">
+        <v>2.2257300000000001E-2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59">
+        <v>3600</v>
+      </c>
+      <c r="D59">
+        <v>2.7800799999999999</v>
+      </c>
+      <c r="E59">
+        <v>1.52531E-3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60">
+        <v>450</v>
+      </c>
+      <c r="D60">
+        <v>0.51009099999999996</v>
+      </c>
+      <c r="E60">
+        <v>10708.1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61">
+        <v>7800</v>
+      </c>
+      <c r="D61">
+        <v>0.58369499999999996</v>
+      </c>
+      <c r="E61">
+        <v>19.4649</v>
+      </c>
+      <c r="F61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62">
+        <v>3000</v>
+      </c>
+      <c r="D62">
+        <v>0.32750899999999999</v>
+      </c>
+      <c r="E62">
+        <v>2.0329200000000001E-3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63">
+        <v>900</v>
+      </c>
+      <c r="D63">
+        <v>0.48941200000000001</v>
+      </c>
+      <c r="E63">
+        <v>1146.17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64">
+        <v>900</v>
+      </c>
+      <c r="D64">
+        <v>0.63330500000000001</v>
+      </c>
+      <c r="E64">
+        <v>4.1916200000000003</v>
+      </c>
+      <c r="F64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65">
+        <v>1050</v>
+      </c>
+      <c r="D65">
+        <v>0.62776600000000005</v>
+      </c>
+      <c r="E65">
+        <v>4.5779199999999998</v>
+      </c>
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66">
+        <v>3150</v>
+      </c>
+      <c r="D66">
+        <v>70.784999999999997</v>
+      </c>
+      <c r="E66">
+        <v>3.0356700000000001E-9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67">
+        <v>1200</v>
+      </c>
+      <c r="D67">
+        <v>0.52603100000000003</v>
+      </c>
+      <c r="E67">
+        <v>262.45600000000002</v>
+      </c>
+      <c r="F67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68">
+        <v>2550</v>
+      </c>
+      <c r="D68">
+        <v>0.739591</v>
+      </c>
+      <c r="E68">
+        <v>4.6511499999999997E-2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69">
+        <v>1650</v>
+      </c>
+      <c r="D69">
+        <v>0.65468999999999999</v>
+      </c>
+      <c r="E69">
+        <v>1.72474E-2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70">
+        <v>300</v>
+      </c>
+      <c r="D70">
+        <v>7.4962699999999993E-2</v>
+      </c>
+      <c r="E70">
+        <v>174365</v>
+      </c>
+      <c r="F70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71">
+        <v>1350</v>
+      </c>
+      <c r="D71">
+        <v>0.67724899999999999</v>
+      </c>
+      <c r="E71">
+        <v>0.97888299999999995</v>
+      </c>
+      <c r="F71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72">
+        <v>300</v>
+      </c>
+      <c r="D72">
+        <v>0.255907</v>
+      </c>
+      <c r="E72">
+        <v>171923</v>
+      </c>
+      <c r="F72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73">
+        <v>1800</v>
+      </c>
+      <c r="D73">
+        <v>0.63933700000000004</v>
+      </c>
+      <c r="E73">
+        <v>0.25578299999999998</v>
+      </c>
+      <c r="F73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74">
+        <v>13800</v>
+      </c>
+      <c r="D74">
+        <v>2.1223299999999998</v>
+      </c>
+      <c r="E74">
+        <v>8.8718300000000007E-6</v>
+      </c>
+      <c r="F74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75">
+        <v>2400</v>
+      </c>
+      <c r="D75">
+        <v>0.67272500000000002</v>
+      </c>
+      <c r="E75">
+        <v>3.4631000000000002E-2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76">
+        <v>2100</v>
+      </c>
+      <c r="D76">
+        <v>0.69718999999999998</v>
+      </c>
+      <c r="E76">
+        <v>3.5330599999999997E-2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77">
+        <v>900</v>
+      </c>
+      <c r="D77">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="E77">
+        <v>305.85000000000002</v>
+      </c>
+      <c r="F77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78">
+        <v>5700</v>
+      </c>
+      <c r="D78">
+        <v>1.9025000000000001</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79">
+        <v>300</v>
+      </c>
+      <c r="D79">
+        <v>0.12407600000000001</v>
+      </c>
+      <c r="E79">
+        <v>304105</v>
+      </c>
+      <c r="F79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80">
+        <v>2400</v>
+      </c>
+      <c r="D80">
+        <v>0.62231999999999998</v>
+      </c>
+      <c r="E80">
+        <v>1.72993E-4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81">
+        <v>1200</v>
+      </c>
+      <c r="D81">
+        <v>0.67401800000000001</v>
+      </c>
+      <c r="E81">
+        <v>1.6355900000000001</v>
+      </c>
+      <c r="F81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82">
+        <v>600</v>
+      </c>
+      <c r="D82">
+        <v>0.53378599999999998</v>
+      </c>
+      <c r="E82">
+        <v>1013.78</v>
+      </c>
+      <c r="F82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83">
+        <v>600</v>
+      </c>
+      <c r="D83">
+        <v>0.37739800000000001</v>
+      </c>
+      <c r="E83">
+        <v>9660.68</v>
+      </c>
+      <c r="F83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84">
+        <v>2850</v>
+      </c>
+      <c r="D84">
+        <v>0.76883400000000002</v>
+      </c>
+      <c r="E84">
+        <v>2.86322E-2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85">
+        <v>750</v>
+      </c>
+      <c r="D85">
+        <v>0.57183300000000004</v>
+      </c>
+      <c r="E85">
+        <v>110.379</v>
+      </c>
+      <c r="F85" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86">
+        <v>1200</v>
+      </c>
+      <c r="D86">
+        <v>0.65085700000000002</v>
+      </c>
+      <c r="E86">
+        <v>82.268299999999996</v>
+      </c>
+      <c r="F86" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87">
+        <v>2700</v>
+      </c>
+      <c r="D87">
+        <v>0.68907600000000002</v>
+      </c>
+      <c r="E87">
+        <v>1.55731E-6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88">
+        <v>1200</v>
+      </c>
+      <c r="D88">
+        <v>0.66172600000000004</v>
+      </c>
+      <c r="E88">
+        <v>12.5852</v>
+      </c>
+      <c r="F88" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89">
+        <v>600</v>
+      </c>
+      <c r="D89">
+        <v>0.15728</v>
+      </c>
+      <c r="E89">
+        <v>6224.84</v>
+      </c>
+      <c r="F89" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90">
+        <v>1350</v>
+      </c>
+      <c r="D90">
+        <v>0.57910799999999996</v>
+      </c>
+      <c r="E90">
+        <v>49.941600000000001</v>
+      </c>
+      <c r="F90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91">
+        <v>600</v>
+      </c>
+      <c r="D91">
+        <v>0.18285399999999999</v>
+      </c>
+      <c r="E91">
+        <v>2555.9699999999998</v>
+      </c>
+      <c r="F91" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92">
+        <v>900</v>
+      </c>
+      <c r="D92">
+        <v>0.57200399999999996</v>
+      </c>
+      <c r="E92">
+        <v>93.503</v>
+      </c>
+      <c r="F92" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93">
+        <v>1050</v>
+      </c>
+      <c r="D93">
+        <v>0.55166700000000002</v>
+      </c>
+      <c r="E93">
+        <v>0.48558600000000002</v>
+      </c>
+      <c r="F93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94">
+        <v>300</v>
+      </c>
+      <c r="D94">
+        <v>0.156001</v>
+      </c>
+      <c r="E94">
+        <v>279864</v>
+      </c>
+      <c r="F94" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95">
+        <v>450</v>
+      </c>
+      <c r="D95">
+        <v>0.453511</v>
+      </c>
+      <c r="E95">
+        <v>8801.92</v>
+      </c>
+      <c r="F95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96">
+        <v>1050</v>
+      </c>
+      <c r="D96">
+        <v>0.61596700000000004</v>
+      </c>
+      <c r="E96">
+        <v>7.5607100000000003</v>
+      </c>
+      <c r="F96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97">
+        <v>1050</v>
+      </c>
+      <c r="D97">
+        <v>0.55824300000000004</v>
+      </c>
+      <c r="E97">
+        <v>115.059</v>
+      </c>
+      <c r="F97" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98">
+        <v>4500</v>
+      </c>
+      <c r="D98">
+        <v>1.80467</v>
+      </c>
+      <c r="E98">
+        <v>4.3336900000000003E-3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99">
+        <v>1050</v>
+      </c>
+      <c r="D99">
+        <v>0.54143699999999995</v>
+      </c>
+      <c r="E99">
+        <v>28.7059</v>
+      </c>
+      <c r="F99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100">
+        <v>7950</v>
+      </c>
+      <c r="D100">
+        <v>6.4261999999999997</v>
+      </c>
+      <c r="E100">
+        <v>1.0705E-7</v>
+      </c>
+      <c r="F100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101">
+        <v>450</v>
+      </c>
+      <c r="D101">
+        <v>0.34098600000000001</v>
+      </c>
+      <c r="E101">
+        <v>51111.3</v>
+      </c>
+      <c r="F101" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102">
+        <v>1500</v>
+      </c>
+      <c r="D102">
+        <v>0.65213600000000005</v>
+      </c>
+      <c r="E102">
+        <v>0.37952200000000003</v>
+      </c>
+      <c r="F102" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103">
+        <v>750</v>
+      </c>
+      <c r="D103">
+        <v>6.0354499999999998E-2</v>
+      </c>
+      <c r="E103">
+        <v>103.357</v>
+      </c>
+      <c r="F103" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104">
+        <v>1500</v>
+      </c>
+      <c r="D104">
+        <v>0.38053999999999999</v>
+      </c>
+      <c r="E104">
+        <v>6.3921599999999996</v>
+      </c>
+      <c r="F104" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105">
+        <v>300</v>
+      </c>
+      <c r="D105">
+        <v>0.37082199999999998</v>
+      </c>
+      <c r="E105">
+        <v>8755.2800000000007</v>
+      </c>
+      <c r="F105" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>147</v>
+      </c>
+      <c r="C106">
+        <v>450</v>
+      </c>
+      <c r="D106">
+        <v>0.49613499999999999</v>
+      </c>
+      <c r="E106">
+        <v>3136.4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107">
+        <v>1050</v>
+      </c>
+      <c r="D107">
+        <v>3.7476799999999999</v>
+      </c>
+      <c r="E107">
+        <v>2.0988699999999999E-2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108">
+        <v>2250</v>
+      </c>
+      <c r="D108">
+        <v>6.0603400000000001</v>
+      </c>
+      <c r="E108">
+        <v>1.90151E-2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>196</v>
+      </c>
+      <c r="C109">
+        <v>1050</v>
+      </c>
+      <c r="D109">
+        <v>0.496865</v>
+      </c>
+      <c r="E109">
+        <v>77.080299999999994</v>
+      </c>
+      <c r="F109" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>150</v>
+      </c>
+      <c r="C110">
+        <v>600</v>
+      </c>
+      <c r="D110">
+        <v>0.40534700000000001</v>
+      </c>
+      <c r="E110">
+        <v>2653.52</v>
+      </c>
+      <c r="F110" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111">
+        <v>4800</v>
+      </c>
+      <c r="D111">
+        <v>2.4218500000000001</v>
+      </c>
+      <c r="E111">
+        <v>6.8481599999999998E-3</v>
+      </c>
+      <c r="F111" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112">
+        <v>7950</v>
+      </c>
+      <c r="D112">
+        <v>0.61898600000000004</v>
+      </c>
+      <c r="E112">
+        <v>95.046599999999998</v>
+      </c>
+      <c r="F112" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113">
+        <v>300</v>
+      </c>
+      <c r="D113">
+        <v>2.5573900000000001E-3</v>
+      </c>
+      <c r="E113">
+        <v>5522.76</v>
+      </c>
+      <c r="F113" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114">
+        <v>3300</v>
+      </c>
+      <c r="D114">
+        <v>0.34664299999999998</v>
+      </c>
+      <c r="E114">
+        <v>1.81656E-3</v>
+      </c>
+      <c r="F114" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115">
+        <v>750</v>
+      </c>
+      <c r="D115">
+        <v>0.43066500000000002</v>
+      </c>
+      <c r="E115">
+        <v>417.01799999999997</v>
+      </c>
+      <c r="F115" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116">
+        <v>3150</v>
+      </c>
+      <c r="D116">
+        <v>38.364600000000003</v>
+      </c>
+      <c r="E116">
+        <v>6.0713300000000004E-9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>156</v>
+      </c>
+      <c r="C117">
+        <v>450</v>
+      </c>
+      <c r="D117">
+        <v>0.36144500000000002</v>
+      </c>
+      <c r="E117">
+        <v>53403.6</v>
+      </c>
+      <c r="F117" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118">
+        <v>1800</v>
+      </c>
+      <c r="D118">
+        <v>0.61164399999999997</v>
+      </c>
+      <c r="E118">
+        <v>1.07738E-2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>158</v>
+      </c>
+      <c r="C119">
+        <v>600</v>
+      </c>
+      <c r="D119">
+        <v>0.25957599999999997</v>
+      </c>
+      <c r="E119">
+        <v>3674.18</v>
+      </c>
+      <c r="F119" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>159</v>
+      </c>
+      <c r="C120">
+        <v>1950</v>
+      </c>
+      <c r="D120">
+        <v>0.29862499999999997</v>
+      </c>
+      <c r="E120">
+        <v>0.43519799999999997</v>
+      </c>
+      <c r="F120" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" t="s">
+        <v>162</v>
+      </c>
+      <c r="C121">
+        <v>13500</v>
+      </c>
+      <c r="D121">
+        <v>2.07342</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>161</v>
+      </c>
+      <c r="C122">
+        <v>450</v>
+      </c>
+      <c r="D122">
+        <v>0.426232</v>
+      </c>
+      <c r="E122">
+        <v>32252.400000000001</v>
+      </c>
+      <c r="F122" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123">
+        <v>5550</v>
+      </c>
+      <c r="D123">
+        <v>1.8487899999999999</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>164</v>
+      </c>
+      <c r="C124">
+        <v>450</v>
+      </c>
+      <c r="D124">
+        <v>0.213116</v>
+      </c>
+      <c r="E124">
+        <v>30826.3</v>
+      </c>
+      <c r="F124" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>165</v>
+      </c>
+      <c r="C125">
+        <v>450</v>
+      </c>
+      <c r="D125">
+        <v>0.11934500000000001</v>
+      </c>
+      <c r="E125">
+        <v>7537.47</v>
+      </c>
+      <c r="F125" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>166</v>
+      </c>
+      <c r="C126">
+        <v>2100</v>
+      </c>
+      <c r="D126">
+        <v>0.62875400000000004</v>
+      </c>
+      <c r="E126">
+        <v>9.38575E-3</v>
+      </c>
+      <c r="F126" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>167</v>
+      </c>
+      <c r="C127">
+        <v>149100</v>
+      </c>
+      <c r="D127">
+        <v>2.9904700000000002</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>68</v>
+      </c>
+      <c r="C128">
+        <v>600</v>
+      </c>
+      <c r="D128">
+        <v>0.40662599999999999</v>
+      </c>
+      <c r="E128">
+        <v>15673.4</v>
+      </c>
+      <c r="F128" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F128" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="U. maydis SG200"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F128">
+      <sortCondition ref="F1:F128"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72277AD-07AA-4002-B265-0EE9089BE4EE}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F129"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>900</v>
+      </c>
+      <c r="D2">
+        <v>0.33862500000000001</v>
+      </c>
+      <c r="E2">
+        <v>594.62900000000002</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1650</v>
+      </c>
+      <c r="D3">
+        <v>0.60017100000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.95018</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>900</v>
+      </c>
+      <c r="D4">
+        <v>0.60314800000000002</v>
+      </c>
+      <c r="E4">
+        <v>4.7340400000000002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5">
+        <v>2850</v>
+      </c>
+      <c r="D5">
+        <v>0.76883400000000002</v>
+      </c>
+      <c r="E5">
+        <v>2.86322E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6">
+        <v>750</v>
+      </c>
+      <c r="D6">
+        <v>0.57183300000000004</v>
+      </c>
+      <c r="E6">
+        <v>110.379</v>
+      </c>
+      <c r="F6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <v>0.55188000000000004</v>
+      </c>
+      <c r="E7">
+        <v>1867.2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1200</v>
+      </c>
+      <c r="D8">
+        <v>0.65721600000000002</v>
+      </c>
+      <c r="E8">
+        <v>33.758800000000001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1650</v>
+      </c>
+      <c r="D9">
+        <v>4.0540900000000004</v>
+      </c>
+      <c r="E9">
+        <v>2.7456700000000001E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>750</v>
+      </c>
+      <c r="D10">
+        <v>0.51595000000000002</v>
+      </c>
+      <c r="E10">
+        <v>6921.74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <v>600</v>
+      </c>
+      <c r="D11">
+        <v>0.33474700000000002</v>
+      </c>
+      <c r="E11">
+        <v>18635.7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12">
+        <v>1200</v>
+      </c>
+      <c r="D12">
+        <v>0.65085700000000002</v>
+      </c>
+      <c r="E12">
+        <v>82.268299999999996</v>
+      </c>
+      <c r="F12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13">
+        <v>450</v>
+      </c>
+      <c r="D13">
+        <v>0.48424200000000001</v>
+      </c>
+      <c r="E13">
+        <v>13048.9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>600</v>
+      </c>
+      <c r="D14">
+        <v>0.46270099999999997</v>
+      </c>
+      <c r="E14">
+        <v>8961.77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15">
+        <v>1200</v>
+      </c>
+      <c r="D15">
+        <v>0.59259300000000004</v>
+      </c>
+      <c r="E15">
+        <v>84.442300000000003</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16">
+        <v>600</v>
+      </c>
+      <c r="D16">
+        <v>0.37998300000000002</v>
+      </c>
+      <c r="E16">
+        <v>4987.83</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17">
+        <v>2700</v>
+      </c>
+      <c r="D17">
+        <v>0.68907600000000002</v>
+      </c>
+      <c r="E17">
+        <v>1.55731E-6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18">
+        <v>4200</v>
+      </c>
+      <c r="D18">
+        <v>0.74538000000000004</v>
+      </c>
+      <c r="E18">
+        <v>7.1689600000000001E-6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19">
+        <v>1050</v>
+      </c>
+      <c r="D19">
+        <v>0.682419</v>
+      </c>
+      <c r="E19">
+        <v>59.388399999999997</v>
+      </c>
+      <c r="F19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20">
+        <v>900</v>
+      </c>
+      <c r="D20">
+        <v>0.60314800000000002</v>
+      </c>
+      <c r="E20">
+        <v>9.6919599999999999</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21">
+        <v>300</v>
+      </c>
+      <c r="D21">
+        <v>0.237813</v>
+      </c>
+      <c r="E21">
+        <v>291317</v>
+      </c>
+      <c r="F21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22">
+        <v>1200</v>
+      </c>
+      <c r="D22">
+        <v>0.66172600000000004</v>
+      </c>
+      <c r="E22">
+        <v>12.5852</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23">
+        <v>750</v>
+      </c>
+      <c r="D23">
+        <v>0.46011600000000002</v>
+      </c>
+      <c r="E23">
+        <v>4.8738400000000004</v>
+      </c>
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24">
+        <v>750</v>
+      </c>
+      <c r="D24">
+        <v>0.55420700000000001</v>
+      </c>
+      <c r="E24">
+        <v>2259.44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25">
+        <v>450</v>
+      </c>
+      <c r="D25">
+        <v>0.31019000000000002</v>
+      </c>
+      <c r="E25">
+        <v>19567.900000000001</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26">
+        <v>600</v>
+      </c>
+      <c r="D26">
+        <v>0.15728</v>
+      </c>
+      <c r="E26">
+        <v>6224.84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27">
+        <v>1350</v>
+      </c>
+      <c r="D27">
+        <v>0.57910799999999996</v>
+      </c>
+      <c r="E27">
+        <v>49.941600000000001</v>
+      </c>
+      <c r="F27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28">
+        <v>900</v>
+      </c>
+      <c r="D28">
+        <v>0.32656200000000002</v>
+      </c>
+      <c r="E28">
+        <v>910.51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29">
+        <v>600</v>
+      </c>
+      <c r="D29">
+        <v>0.18285399999999999</v>
+      </c>
+      <c r="E29">
+        <v>2555.9699999999998</v>
+      </c>
+      <c r="F29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30">
+        <v>600</v>
+      </c>
+      <c r="D30">
+        <v>0.56738999999999995</v>
+      </c>
+      <c r="E30">
+        <v>1048.8399999999999</v>
+      </c>
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31">
+        <v>1200</v>
+      </c>
+      <c r="D31">
+        <v>0.60228599999999999</v>
+      </c>
+      <c r="E31">
+        <v>24.202300000000001</v>
+      </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32">
+        <v>900</v>
+      </c>
+      <c r="D32">
+        <v>0.57200399999999996</v>
+      </c>
+      <c r="E32">
+        <v>93.503</v>
+      </c>
+      <c r="F32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33">
+        <v>1050</v>
+      </c>
+      <c r="D33">
+        <v>0.55166700000000002</v>
+      </c>
+      <c r="E33">
+        <v>0.48558600000000002</v>
+      </c>
+      <c r="F33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34">
+        <v>300</v>
+      </c>
+      <c r="D34">
+        <v>0.156001</v>
+      </c>
+      <c r="E34">
+        <v>279864</v>
+      </c>
+      <c r="F34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35">
+        <v>450</v>
+      </c>
+      <c r="D35">
+        <v>0.453511</v>
+      </c>
+      <c r="E35">
+        <v>8801.92</v>
+      </c>
+      <c r="F35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>750</v>
+      </c>
+      <c r="D36">
+        <v>0.63278800000000002</v>
+      </c>
+      <c r="E36">
+        <v>342.14699999999999</v>
+      </c>
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37">
+        <v>3300</v>
+      </c>
+      <c r="D37">
+        <v>0.74163699999999999</v>
+      </c>
+      <c r="E37">
+        <v>3.9220999999999999E-4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38">
+        <v>900</v>
+      </c>
+      <c r="D38">
+        <v>0.61951900000000004</v>
+      </c>
+      <c r="E38">
+        <v>10.953200000000001</v>
+      </c>
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39">
+        <v>450</v>
+      </c>
+      <c r="D39">
+        <v>0.56868200000000002</v>
+      </c>
+      <c r="E39">
+        <v>407.30099999999999</v>
+      </c>
+      <c r="F39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40">
+        <v>1950</v>
+      </c>
+      <c r="D40">
+        <v>0.706677</v>
+      </c>
+      <c r="E40">
+        <v>3.3890000000000003E-2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41">
+        <v>1050</v>
+      </c>
+      <c r="D41">
+        <v>0.61596700000000004</v>
+      </c>
+      <c r="E41">
+        <v>7.5607100000000003</v>
+      </c>
+      <c r="F41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42">
+        <v>1200</v>
+      </c>
+      <c r="D42">
+        <v>0.578376</v>
+      </c>
+      <c r="E42">
+        <v>59.677100000000003</v>
+      </c>
+      <c r="F42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43">
+        <v>1050</v>
+      </c>
+      <c r="D43">
+        <v>0.55824300000000004</v>
+      </c>
+      <c r="E43">
+        <v>115.059</v>
+      </c>
+      <c r="F43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44">
+        <v>1800</v>
+      </c>
+      <c r="D44">
+        <v>0.67724899999999999</v>
+      </c>
+      <c r="E44">
+        <v>5.4546999999999998E-2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45">
+        <v>450</v>
+      </c>
+      <c r="D45">
+        <v>0.47734900000000002</v>
+      </c>
+      <c r="E45">
+        <v>19880.7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46">
+        <v>1200</v>
+      </c>
+      <c r="D46">
+        <v>2.1487099999999999</v>
+      </c>
+      <c r="E46">
+        <v>4.83168E-2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47">
+        <v>4500</v>
+      </c>
+      <c r="D47">
+        <v>1.80467</v>
+      </c>
+      <c r="E47">
+        <v>4.3336900000000003E-3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48">
+        <v>2400</v>
+      </c>
+      <c r="D48">
+        <v>0.66626300000000005</v>
+      </c>
+      <c r="E48">
+        <v>4.6522099999999997E-2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49">
+        <v>1050</v>
+      </c>
+      <c r="D49">
+        <v>0.54143699999999995</v>
+      </c>
+      <c r="E49">
+        <v>28.7059</v>
+      </c>
+      <c r="F49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50">
+        <v>8100</v>
+      </c>
+      <c r="D50">
+        <v>6.2821199999999999</v>
+      </c>
+      <c r="E50">
+        <v>1.2702599999999999E-7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51">
+        <v>7950</v>
+      </c>
+      <c r="D51">
+        <v>6.4261999999999997</v>
+      </c>
+      <c r="E51">
+        <v>1.0705E-7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52">
+        <v>450</v>
+      </c>
+      <c r="D52">
+        <v>0.34098600000000001</v>
+      </c>
+      <c r="E52">
+        <v>51111.3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53">
+        <v>750</v>
+      </c>
+      <c r="D53">
+        <v>0.40117999999999998</v>
+      </c>
+      <c r="E53">
+        <v>7726.14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54">
+        <v>1050</v>
+      </c>
+      <c r="D54">
+        <v>0.585669</v>
+      </c>
+      <c r="E54">
+        <v>1039.79</v>
+      </c>
+      <c r="F54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55">
+        <v>1500</v>
+      </c>
+      <c r="D55">
+        <v>0.65213600000000005</v>
+      </c>
+      <c r="E55">
+        <v>0.37952200000000003</v>
+      </c>
+      <c r="F55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56">
+        <v>1650</v>
+      </c>
+      <c r="D56">
+        <v>0.60440099999999997</v>
+      </c>
+      <c r="E56">
+        <v>3.37256</v>
+      </c>
+      <c r="F56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57">
+        <v>300</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>11135.8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58">
+        <v>750</v>
+      </c>
+      <c r="D58">
+        <v>6.0354499999999998E-2</v>
+      </c>
+      <c r="E58">
+        <v>103.357</v>
+      </c>
+      <c r="F58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59">
+        <v>1350</v>
+      </c>
+      <c r="D59">
+        <v>0.34465600000000002</v>
+      </c>
+      <c r="E59">
+        <v>18.159199999999998</v>
+      </c>
+      <c r="F59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60">
+        <v>1500</v>
+      </c>
+      <c r="D60">
+        <v>0.38053999999999999</v>
+      </c>
+      <c r="E60">
+        <v>6.3921599999999996</v>
+      </c>
+      <c r="F60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>1200</v>
+      </c>
+      <c r="D61">
+        <v>0.60487100000000005</v>
+      </c>
+      <c r="E61">
+        <v>38.871000000000002</v>
+      </c>
+      <c r="F61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62">
+        <v>300</v>
+      </c>
+      <c r="D62">
+        <v>0.37082199999999998</v>
+      </c>
+      <c r="E62">
+        <v>8755.2800000000007</v>
+      </c>
+      <c r="F62" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>1200</v>
+      </c>
+      <c r="D63">
+        <v>0.61327200000000004</v>
+      </c>
+      <c r="E63">
+        <v>80.987200000000001</v>
+      </c>
+      <c r="F63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <v>1200</v>
+      </c>
+      <c r="D64">
+        <v>0.59582400000000002</v>
+      </c>
+      <c r="E64">
+        <v>8.9609000000000008E-3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65">
+        <v>900</v>
+      </c>
+      <c r="D65">
+        <v>0.64536800000000005</v>
+      </c>
+      <c r="E65">
+        <v>17.319700000000001</v>
+      </c>
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66">
+        <v>750</v>
+      </c>
+      <c r="D66">
+        <v>0.52732400000000001</v>
+      </c>
+      <c r="E66">
+        <v>1876.63</v>
+      </c>
+      <c r="F66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>600</v>
+      </c>
+      <c r="D67">
+        <v>0.55963499999999999</v>
+      </c>
+      <c r="E67">
+        <v>779.96799999999996</v>
+      </c>
+      <c r="F67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68">
+        <v>2550</v>
+      </c>
+      <c r="D68">
+        <v>0.68028999999999995</v>
+      </c>
+      <c r="E68">
+        <v>3.5836700000000002E-5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69">
+        <v>450</v>
+      </c>
+      <c r="D69">
+        <v>0.49613499999999999</v>
+      </c>
+      <c r="E69">
+        <v>3136.4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>600</v>
+      </c>
+      <c r="D70">
+        <v>0.58031500000000003</v>
+      </c>
+      <c r="E70">
+        <v>1210.52</v>
+      </c>
+      <c r="F70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71">
+        <v>450</v>
+      </c>
+      <c r="D71">
+        <v>0.20851700000000001</v>
+      </c>
+      <c r="E71">
+        <v>90159.9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72">
+        <v>1050</v>
+      </c>
+      <c r="D72">
+        <v>3.7476799999999999</v>
+      </c>
+      <c r="E72">
+        <v>2.0988699999999999E-2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73">
+        <v>2250</v>
+      </c>
+      <c r="D73">
+        <v>5.7564399999999996</v>
+      </c>
+      <c r="E73">
+        <v>1.94117E-2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74">
+        <v>2250</v>
+      </c>
+      <c r="D74">
+        <v>6.0603400000000001</v>
+      </c>
+      <c r="E74">
+        <v>1.90151E-2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75">
+        <v>750</v>
+      </c>
+      <c r="D75">
+        <v>0.44874199999999997</v>
+      </c>
+      <c r="E75">
+        <v>219.41200000000001</v>
+      </c>
+      <c r="F75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76">
+        <v>600</v>
+      </c>
+      <c r="D76">
+        <v>0.59453199999999995</v>
+      </c>
+      <c r="E76">
+        <v>1171.1199999999999</v>
+      </c>
+      <c r="F76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77">
+        <v>450</v>
+      </c>
+      <c r="D77">
+        <v>0.41186400000000001</v>
+      </c>
+      <c r="E77">
+        <v>20039.5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78">
+        <v>1050</v>
+      </c>
+      <c r="D78">
+        <v>0.496865</v>
+      </c>
+      <c r="E78">
+        <v>77.080299999999994</v>
+      </c>
+      <c r="F78" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79">
+        <v>1200</v>
+      </c>
+      <c r="D79">
+        <v>0.57255999999999996</v>
+      </c>
+      <c r="E79">
+        <v>3.6305999999999998</v>
+      </c>
+      <c r="F79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80">
+        <v>1050</v>
+      </c>
+      <c r="D80">
+        <v>0.593055</v>
+      </c>
+      <c r="E80">
+        <v>6.2041700000000004</v>
+      </c>
+      <c r="F80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81">
+        <v>1200</v>
+      </c>
+      <c r="D81">
+        <v>0.62231999999999998</v>
+      </c>
+      <c r="E81">
+        <v>0.12725800000000001</v>
+      </c>
+      <c r="F81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82">
+        <v>600</v>
+      </c>
+      <c r="D82">
+        <v>0.288219</v>
+      </c>
+      <c r="E82">
+        <v>24564.3</v>
+      </c>
+      <c r="F82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83">
+        <v>600</v>
+      </c>
+      <c r="D83">
+        <v>0.306313</v>
+      </c>
+      <c r="E83">
+        <v>22556</v>
+      </c>
+      <c r="F83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84">
+        <v>450</v>
+      </c>
+      <c r="D84">
+        <v>0.54283300000000001</v>
+      </c>
+      <c r="E84">
+        <v>4342.47</v>
+      </c>
+      <c r="F84" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85">
+        <v>2550</v>
+      </c>
+      <c r="D85">
+        <v>0.661435</v>
+      </c>
+      <c r="E85">
+        <v>2.2257300000000001E-2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86">
+        <v>600</v>
+      </c>
+      <c r="D86">
+        <v>0.40534700000000001</v>
+      </c>
+      <c r="E86">
+        <v>2653.52</v>
+      </c>
+      <c r="F86" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87">
+        <v>4800</v>
+      </c>
+      <c r="D87">
+        <v>2.4218500000000001</v>
+      </c>
+      <c r="E87">
+        <v>6.8481599999999998E-3</v>
+      </c>
+      <c r="F87" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88">
+        <v>3600</v>
+      </c>
+      <c r="D88">
+        <v>2.7800799999999999</v>
+      </c>
+      <c r="E88">
+        <v>1.52531E-3</v>
+      </c>
+      <c r="F88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89">
+        <v>450</v>
+      </c>
+      <c r="D89">
+        <v>0.51009099999999996</v>
+      </c>
+      <c r="E89">
+        <v>10708.1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90">
+        <v>7800</v>
+      </c>
+      <c r="D90">
+        <v>0.58369499999999996</v>
+      </c>
+      <c r="E90">
+        <v>19.4649</v>
+      </c>
+      <c r="F90" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91">
+        <v>7950</v>
+      </c>
+      <c r="D91">
+        <v>0.61898600000000004</v>
+      </c>
+      <c r="E91">
+        <v>95.046599999999998</v>
+      </c>
+      <c r="F91" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92">
+        <v>300</v>
+      </c>
+      <c r="D92">
+        <v>2.5573900000000001E-3</v>
+      </c>
+      <c r="E92">
+        <v>5522.76</v>
+      </c>
+      <c r="F92" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93">
+        <v>3300</v>
+      </c>
+      <c r="D93">
+        <v>0.34664299999999998</v>
+      </c>
+      <c r="E93">
+        <v>1.81656E-3</v>
+      </c>
+      <c r="F93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94">
+        <v>3000</v>
+      </c>
+      <c r="D94">
+        <v>0.32750899999999999</v>
+      </c>
+      <c r="E94">
+        <v>2.0329200000000001E-3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>155</v>
+      </c>
+      <c r="C95">
+        <v>750</v>
+      </c>
+      <c r="D95">
+        <v>0.43066500000000002</v>
+      </c>
+      <c r="E95">
+        <v>417.01799999999997</v>
+      </c>
+      <c r="F95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96">
+        <v>900</v>
+      </c>
+      <c r="D96">
+        <v>0.48941200000000001</v>
+      </c>
+      <c r="E96">
+        <v>1146.17</v>
+      </c>
+      <c r="F96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97">
+        <v>900</v>
+      </c>
+      <c r="D97">
+        <v>0.63330500000000001</v>
+      </c>
+      <c r="E97">
+        <v>4.1916200000000003</v>
+      </c>
+      <c r="F97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98">
+        <v>1050</v>
+      </c>
+      <c r="D98">
+        <v>0.62776600000000005</v>
+      </c>
+      <c r="E98">
+        <v>4.5779199999999998</v>
+      </c>
+      <c r="F98" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99">
+        <v>3150</v>
+      </c>
+      <c r="D99">
+        <v>38.364600000000003</v>
+      </c>
+      <c r="E99">
+        <v>6.0713300000000004E-9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100">
+        <v>3150</v>
+      </c>
+      <c r="D100">
+        <v>70.784999999999997</v>
+      </c>
+      <c r="E100">
+        <v>3.0356700000000001E-9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101">
+        <v>1200</v>
+      </c>
+      <c r="D101">
+        <v>0.52603100000000003</v>
+      </c>
+      <c r="E101">
+        <v>262.45600000000002</v>
+      </c>
+      <c r="F101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>156</v>
+      </c>
+      <c r="C102">
+        <v>450</v>
+      </c>
+      <c r="D102">
+        <v>0.36144500000000002</v>
+      </c>
+      <c r="E102">
+        <v>53403.6</v>
+      </c>
+      <c r="F102" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103">
+        <v>2550</v>
+      </c>
+      <c r="D103">
+        <v>0.739591</v>
+      </c>
+      <c r="E103">
+        <v>4.6511499999999997E-2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104">
+        <v>1800</v>
+      </c>
+      <c r="D104">
+        <v>0.61164399999999997</v>
+      </c>
+      <c r="E104">
+        <v>1.07738E-2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105">
+        <v>1650</v>
+      </c>
+      <c r="D105">
+        <v>0.65468999999999999</v>
+      </c>
+      <c r="E105">
+        <v>1.72474E-2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>158</v>
+      </c>
+      <c r="C106">
+        <v>600</v>
+      </c>
+      <c r="D106">
+        <v>0.25957599999999997</v>
+      </c>
+      <c r="E106">
+        <v>3674.18</v>
+      </c>
+      <c r="F106" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107">
+        <v>300</v>
+      </c>
+      <c r="D107">
+        <v>7.4962699999999993E-2</v>
+      </c>
+      <c r="E107">
+        <v>174365</v>
+      </c>
+      <c r="F107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108">
+        <v>1350</v>
+      </c>
+      <c r="D108">
+        <v>0.67724899999999999</v>
+      </c>
+      <c r="E108">
+        <v>0.97888299999999995</v>
+      </c>
+      <c r="F108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109">
+        <v>1950</v>
+      </c>
+      <c r="D109">
+        <v>0.29862499999999997</v>
+      </c>
+      <c r="E109">
+        <v>0.43519799999999997</v>
+      </c>
+      <c r="F109" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110">
+        <v>300</v>
+      </c>
+      <c r="D110">
+        <v>0.255907</v>
+      </c>
+      <c r="E110">
+        <v>171923</v>
+      </c>
+      <c r="F110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111">
+        <v>1800</v>
+      </c>
+      <c r="D111">
+        <v>0.63933700000000004</v>
+      </c>
+      <c r="E111">
+        <v>0.25578299999999998</v>
+      </c>
+      <c r="F111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112">
+        <v>13800</v>
+      </c>
+      <c r="D112">
+        <v>2.1223299999999998</v>
+      </c>
+      <c r="E112">
+        <v>8.8718300000000007E-6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113">
+        <v>13500</v>
+      </c>
+      <c r="D113">
+        <v>2.07342</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>161</v>
+      </c>
+      <c r="C114">
+        <v>450</v>
+      </c>
+      <c r="D114">
+        <v>0.426232</v>
+      </c>
+      <c r="E114">
+        <v>32252.400000000001</v>
+      </c>
+      <c r="F114" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>58</v>
+      </c>
+      <c r="C115">
+        <v>2400</v>
+      </c>
+      <c r="D115">
+        <v>0.67272500000000002</v>
+      </c>
+      <c r="E115">
+        <v>3.4631000000000002E-2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116">
+        <v>2100</v>
+      </c>
+      <c r="D116">
+        <v>0.69718999999999998</v>
+      </c>
+      <c r="E116">
+        <v>3.5330599999999997E-2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>62</v>
+      </c>
+      <c r="C117">
+        <v>900</v>
+      </c>
+      <c r="D117">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="E117">
+        <v>305.85000000000002</v>
+      </c>
+      <c r="F117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118">
+        <v>5700</v>
+      </c>
+      <c r="D118">
+        <v>1.9025000000000001</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119">
+        <v>5550</v>
+      </c>
+      <c r="D119">
+        <v>1.8487899999999999</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>164</v>
+      </c>
+      <c r="C120">
+        <v>450</v>
+      </c>
+      <c r="D120">
+        <v>0.213116</v>
+      </c>
+      <c r="E120">
+        <v>30826.3</v>
+      </c>
+      <c r="F120" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>165</v>
+      </c>
+      <c r="C121">
+        <v>450</v>
+      </c>
+      <c r="D121">
+        <v>0.11934500000000001</v>
+      </c>
+      <c r="E121">
+        <v>7537.47</v>
+      </c>
+      <c r="F121" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122">
+        <v>300</v>
+      </c>
+      <c r="D122">
+        <v>0.12407600000000001</v>
+      </c>
+      <c r="E122">
+        <v>304105</v>
+      </c>
+      <c r="F122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123">
+        <v>2100</v>
+      </c>
+      <c r="D123">
+        <v>0.62875400000000004</v>
+      </c>
+      <c r="E123">
+        <v>9.38575E-3</v>
+      </c>
+      <c r="F123" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124">
+        <v>2400</v>
+      </c>
+      <c r="D124">
+        <v>0.62231999999999998</v>
+      </c>
+      <c r="E124">
+        <v>1.72993E-4</v>
+      </c>
+      <c r="F124" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>66</v>
+      </c>
+      <c r="C125">
+        <v>1200</v>
+      </c>
+      <c r="D125">
+        <v>0.67401800000000001</v>
+      </c>
+      <c r="E125">
+        <v>1.6355900000000001</v>
+      </c>
+      <c r="F125" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126">
+        <v>600</v>
+      </c>
+      <c r="D126">
+        <v>0.53378599999999998</v>
+      </c>
+      <c r="E126">
+        <v>1013.78</v>
+      </c>
+      <c r="F126" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>167</v>
+      </c>
+      <c r="C127">
+        <v>149100</v>
+      </c>
+      <c r="D127">
+        <v>2.9904700000000002</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>68</v>
+      </c>
+      <c r="C128">
+        <v>600</v>
+      </c>
+      <c r="D128">
+        <v>0.37739800000000001</v>
+      </c>
+      <c r="E128">
+        <v>9660.68</v>
+      </c>
+      <c r="F128" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>68</v>
+      </c>
+      <c r="C129">
+        <v>600</v>
+      </c>
+      <c r="D129">
+        <v>0.40662599999999999</v>
+      </c>
+      <c r="E129">
+        <v>15673.4</v>
+      </c>
+      <c r="F129" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F129" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="UmH2O2.R"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F129">
+      <sortCondition ref="B1:B129"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506F8A9D-014E-44CE-9B61-F58FC48BC200}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2">
+        <v>1050</v>
+      </c>
+      <c r="D2">
+        <v>0.55166700000000002</v>
+      </c>
+      <c r="E2">
+        <v>0.48558600000000002</v>
+      </c>
+      <c r="F2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3">
+        <v>1050</v>
+      </c>
+      <c r="D3">
+        <v>0.61596700000000004</v>
+      </c>
+      <c r="E3">
+        <v>7.5607100000000003</v>
+      </c>
+      <c r="F3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4">
+        <v>1050</v>
+      </c>
+      <c r="D4">
+        <v>0.55824300000000004</v>
+      </c>
+      <c r="E4">
+        <v>115.059</v>
+      </c>
+      <c r="F4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5">
+        <v>1050</v>
+      </c>
+      <c r="D5">
+        <v>0.54143699999999995</v>
+      </c>
+      <c r="E5">
+        <v>28.7059</v>
+      </c>
+      <c r="F5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6">
+        <v>1050</v>
+      </c>
+      <c r="D6">
+        <v>3.7476799999999999</v>
+      </c>
+      <c r="E6">
+        <v>2.0988699999999999E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7">
+        <v>1050</v>
+      </c>
+      <c r="D7">
+        <v>0.496865</v>
+      </c>
+      <c r="E7">
+        <v>77.080299999999994</v>
+      </c>
+      <c r="F7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8">
+        <v>1200</v>
+      </c>
+      <c r="D8">
+        <v>0.65085700000000002</v>
+      </c>
+      <c r="E8">
+        <v>82.268299999999996</v>
+      </c>
+      <c r="F8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9">
+        <v>1200</v>
+      </c>
+      <c r="D9">
+        <v>0.66172600000000004</v>
+      </c>
+      <c r="E9">
+        <v>12.5852</v>
+      </c>
+      <c r="F9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10">
+        <v>1350</v>
+      </c>
+      <c r="D10">
+        <v>0.57910799999999996</v>
+      </c>
+      <c r="E10">
+        <v>49.941600000000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11">
+        <v>1500</v>
+      </c>
+      <c r="D11">
+        <v>0.65213600000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.37952200000000003</v>
+      </c>
+      <c r="F11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12">
+        <v>1500</v>
+      </c>
+      <c r="D12">
+        <v>0.38053999999999999</v>
+      </c>
+      <c r="E12">
+        <v>6.3921599999999996</v>
+      </c>
+      <c r="F12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13">
+        <v>1800</v>
+      </c>
+      <c r="D13">
+        <v>0.61164399999999997</v>
+      </c>
+      <c r="E13">
+        <v>1.07738E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14">
+        <v>1950</v>
+      </c>
+      <c r="D14">
+        <v>0.29862499999999997</v>
+      </c>
+      <c r="E14">
+        <v>0.43519799999999997</v>
+      </c>
+      <c r="F14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15">
+        <v>2100</v>
+      </c>
+      <c r="D15">
+        <v>0.62875400000000004</v>
+      </c>
+      <c r="E15">
+        <v>9.38575E-3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16">
+        <v>2250</v>
+      </c>
+      <c r="D16">
+        <v>6.0603400000000001</v>
+      </c>
+      <c r="E16">
+        <v>1.90151E-2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17">
+        <v>2700</v>
+      </c>
+      <c r="D17">
+        <v>0.68907600000000002</v>
+      </c>
+      <c r="E17">
+        <v>1.55731E-6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18">
+        <v>2850</v>
+      </c>
+      <c r="D18">
+        <v>0.76883400000000002</v>
+      </c>
+      <c r="E18">
+        <v>2.86322E-2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>3150</v>
+      </c>
+      <c r="D19">
+        <v>38.364600000000003</v>
+      </c>
+      <c r="E19">
+        <v>6.0713300000000004E-9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20">
+        <v>3300</v>
+      </c>
+      <c r="D20">
+        <v>0.34664299999999998</v>
+      </c>
+      <c r="E20">
+        <v>1.81656E-3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21">
+        <v>4500</v>
+      </c>
+      <c r="D21">
+        <v>1.80467</v>
+      </c>
+      <c r="E21">
+        <v>4.3336900000000003E-3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22">
+        <v>4800</v>
+      </c>
+      <c r="D22">
+        <v>2.4218500000000001</v>
+      </c>
+      <c r="E22">
+        <v>6.8481599999999998E-3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23">
+        <v>5550</v>
+      </c>
+      <c r="D23">
+        <v>1.8487899999999999</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24">
+        <v>7950</v>
+      </c>
+      <c r="D24">
+        <v>6.4261999999999997</v>
+      </c>
+      <c r="E24">
+        <v>1.0705E-7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25">
+        <v>7950</v>
+      </c>
+      <c r="D25">
+        <v>0.61898600000000004</v>
+      </c>
+      <c r="E25">
+        <v>95.046599999999998</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26">
+        <v>13500</v>
+      </c>
+      <c r="D26">
+        <v>2.07342</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27">
+        <v>149100</v>
+      </c>
+      <c r="D27">
+        <v>2.9904700000000002</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F27" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
+      <sortCondition ref="F1:F27"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09442213-BF41-4794-969A-2102176CDDB5}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2">
+        <v>4500</v>
+      </c>
+      <c r="D2">
+        <v>1.80467</v>
+      </c>
+      <c r="E2">
+        <v>4.3336900000000003E-3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3">
+        <v>5550</v>
+      </c>
+      <c r="D3">
+        <v>1.8487899999999999</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4">
+        <v>13500</v>
+      </c>
+      <c r="D4">
+        <v>2.07342</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5">
+        <v>4800</v>
+      </c>
+      <c r="D5">
+        <v>2.4218500000000001</v>
+      </c>
+      <c r="E5">
+        <v>6.8481599999999998E-3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6">
+        <v>149100</v>
+      </c>
+      <c r="D6">
+        <v>2.9904700000000002</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7">
+        <v>1050</v>
+      </c>
+      <c r="D7">
+        <v>3.7476799999999999</v>
+      </c>
+      <c r="E7">
+        <v>2.0988699999999999E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8">
+        <v>2250</v>
+      </c>
+      <c r="D8">
+        <v>6.0603400000000001</v>
+      </c>
+      <c r="E8">
+        <v>1.90151E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9">
+        <v>7950</v>
+      </c>
+      <c r="D9">
+        <v>6.4261999999999997</v>
+      </c>
+      <c r="E9">
+        <v>1.0705E-7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>3150</v>
+      </c>
+      <c r="D10">
+        <v>38.364600000000003</v>
+      </c>
+      <c r="E10">
+        <v>6.0713300000000004E-9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
+      <sortCondition ref="D1:D10"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF267D06-0E8D-4EBF-8ACB-6C1CD4BF4D53}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
@@ -8728,16 +14297,16 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C2">
-        <v>4500</v>
+        <v>149100</v>
       </c>
       <c r="D2">
-        <v>1.80467</v>
+        <v>2.9904700000000002</v>
       </c>
       <c r="E2">
-        <v>4.3336900000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>197</v>
@@ -8751,16 +14320,16 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C3">
-        <v>1050</v>
+        <v>4500</v>
       </c>
       <c r="D3">
-        <v>3.7476799999999999</v>
+        <v>1.80467</v>
       </c>
       <c r="E3">
-        <v>2.0988699999999999E-2</v>
+        <v>4.3336900000000003E-3</v>
       </c>
       <c r="F3" t="s">
         <v>197</v>
@@ -8774,16 +14343,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C4">
-        <v>149100</v>
+        <v>1050</v>
       </c>
       <c r="D4">
-        <v>2.9904700000000002</v>
+        <v>3.7476799999999999</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.0988699999999999E-2</v>
       </c>
       <c r="F4" t="s">
         <v>197</v>
@@ -8793,9 +14362,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F211">
-    <sortCondition ref="B2:B211"/>
-  </sortState>
+  <autoFilter ref="A1:F4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F4">
+      <sortCondition ref="E1:E4"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>